--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38903918258842</v>
+        <v>25.3890391825884</v>
       </c>
       <c r="C2">
-        <v>15.95708225210922</v>
+        <v>15.95708225210925</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.943557144174287</v>
+        <v>9.943557144174351</v>
       </c>
       <c r="F2">
-        <v>35.4455444928147</v>
+        <v>35.44554449281463</v>
       </c>
       <c r="G2">
-        <v>27.50109762661412</v>
+        <v>27.50109762661401</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.771174084244274</v>
+        <v>9.771174084244251</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.54128162229061</v>
+        <v>13.54128162229063</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.57188341565627</v>
+        <v>23.57188341565631</v>
       </c>
       <c r="C3">
-        <v>14.8774055313384</v>
+        <v>14.87740553133857</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.279609539356885</v>
+        <v>9.279609539356773</v>
       </c>
       <c r="F3">
-        <v>33.08320101574009</v>
+        <v>33.08320101574004</v>
       </c>
       <c r="G3">
-        <v>26.114995204509</v>
+        <v>26.11499520450885</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.715625446499681</v>
+        <v>9.715625446499637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40089228706235</v>
+        <v>22.40089228706239</v>
       </c>
       <c r="C4">
-        <v>14.18322160394702</v>
+        <v>14.18322160394693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.851262268537804</v>
+        <v>8.851262268537843</v>
       </c>
       <c r="F4">
         <v>31.59232508673401</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.695592100016446</v>
+        <v>9.695592100016452</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.0922797166449</v>
+        <v>12.09227971664488</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90952357860115</v>
+        <v>21.9095235786011</v>
       </c>
       <c r="C5">
-        <v>13.89232473465799</v>
+        <v>13.89232473465812</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.671443427245157</v>
+        <v>8.671443427245087</v>
       </c>
       <c r="F5">
-        <v>30.97387369694631</v>
+        <v>30.97387369694633</v>
       </c>
       <c r="G5">
-        <v>24.9300971385604</v>
+        <v>24.9300971385605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.690676408996184</v>
+        <v>9.690676408996378</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.85447364972409</v>
+        <v>11.85447364972412</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>21.82706772589725</v>
       </c>
       <c r="C6">
-        <v>13.84353367362085</v>
+        <v>13.84353367362079</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.641265050613054</v>
+        <v>8.641265050613136</v>
       </c>
       <c r="F6">
         <v>30.87052931163713</v>
       </c>
       <c r="G6">
-        <v>24.8735166026823</v>
+        <v>24.87351660268236</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.690048125418587</v>
+        <v>9.690048125418581</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.81458470065653</v>
+        <v>11.81458470065658</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3943232971326</v>
+        <v>22.39432329713256</v>
       </c>
       <c r="C7">
-        <v>14.17933108842938</v>
+        <v>14.17933108842945</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.848858559023597</v>
+        <v>8.848858559023473</v>
       </c>
       <c r="F7">
-        <v>31.5840282694076</v>
+        <v>31.58402826940765</v>
       </c>
       <c r="G7">
-        <v>25.2670359142309</v>
+        <v>25.26703591423092</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.695513027210829</v>
+        <v>9.69551302721079</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.08909945212516</v>
+        <v>12.08909945212511</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77377104591599</v>
+        <v>24.77377104591611</v>
       </c>
       <c r="C8">
-        <v>15.59119921675544</v>
+        <v>15.59119921675542</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.718879025894861</v>
+        <v>9.718879025894839</v>
       </c>
       <c r="F8">
-        <v>34.63630241707196</v>
+        <v>34.63630241707202</v>
       </c>
       <c r="G8">
-        <v>27.02164386466834</v>
+        <v>27.02164386466838</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.748919995819225</v>
+        <v>9.748919995819142</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.24262028836103</v>
+        <v>13.24262028836104</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.01574008803083</v>
+        <v>29.01574008803102</v>
       </c>
       <c r="C9">
-        <v>18.11993177307694</v>
+        <v>18.119931773077</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.26428591400893</v>
+        <v>11.26428591400888</v>
       </c>
       <c r="F9">
-        <v>40.58160719433591</v>
+        <v>40.58160719433602</v>
       </c>
       <c r="G9">
-        <v>30.52094868330096</v>
+        <v>30.52094868330103</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.979228904228346</v>
+        <v>9.979228904228224</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.3031557193931</v>
+        <v>15.30315571939303</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.89604266931849</v>
+        <v>31.89604266931845</v>
       </c>
       <c r="C10">
-        <v>19.84485491831866</v>
+        <v>19.84485491831867</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.3072560346626</v>
+        <v>12.30725603466264</v>
       </c>
       <c r="F10">
-        <v>44.72572545790472</v>
+        <v>44.72572545790467</v>
       </c>
       <c r="G10">
-        <v>33.13216495393629</v>
+        <v>33.13216495393619</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.24564462202873</v>
+        <v>10.24564462202872</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.70219871169803</v>
+        <v>16.70219871169806</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.16085722288339</v>
+        <v>33.16085722288321</v>
       </c>
       <c r="C11">
-        <v>20.60434300274854</v>
+        <v>20.60434300274857</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>12.76312734323082</v>
       </c>
       <c r="F11">
-        <v>46.56120362313695</v>
+        <v>46.56120362313671</v>
       </c>
       <c r="G11">
-        <v>34.436255754377</v>
+        <v>34.43625575437679</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.39296852920103</v>
+        <v>10.39296852920106</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.31597076532226</v>
+        <v>17.31597076532229</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.63384060130841</v>
+        <v>33.63384060130832</v>
       </c>
       <c r="C12">
-        <v>20.88868524536004</v>
+        <v>20.88868524536018</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.93322522462198</v>
+        <v>12.93322522462206</v>
       </c>
       <c r="F12">
-        <v>47.24985719967847</v>
+        <v>47.24985719967863</v>
       </c>
       <c r="G12">
-        <v>34.95756993800537</v>
+        <v>34.95756993800551</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.45297993422092</v>
+        <v>10.45297993422098</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.54535796013414</v>
+        <v>17.54535796013421</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.53223100751124</v>
+        <v>33.5322310075113</v>
       </c>
       <c r="C13">
         <v>20.82758556829425</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.89670168102533</v>
+        <v>12.89670168102535</v>
       </c>
       <c r="F13">
-        <v>47.10181456831026</v>
+        <v>47.10181456831032</v>
       </c>
       <c r="G13">
-        <v>34.84531976968231</v>
+        <v>34.84531976968238</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.43985961554116</v>
+        <v>10.43985961554113</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.19988606206847</v>
+        <v>33.19988606206834</v>
       </c>
       <c r="C14">
-        <v>20.6277990329561</v>
+        <v>20.62779903295593</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>12.77717123348574</v>
       </c>
       <c r="F14">
-        <v>46.61798306657039</v>
+        <v>46.6179830665703</v>
       </c>
       <c r="G14">
-        <v>34.47915668137236</v>
+        <v>34.47915668137227</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.39781821784689</v>
+        <v>10.39781821784694</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.33490199673503</v>
+        <v>17.33490199673502</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.99555526642221</v>
+        <v>32.99555526642218</v>
       </c>
       <c r="C15">
-        <v>20.50501136401491</v>
+        <v>20.50501136401486</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.70363035914931</v>
+        <v>12.70363035914934</v>
       </c>
       <c r="F15">
-        <v>46.32081324372241</v>
+        <v>46.32081324372244</v>
       </c>
       <c r="G15">
-        <v>34.25478643750024</v>
+        <v>34.25478643750022</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.37263129725438</v>
+        <v>10.37263129725447</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.23578397504626</v>
+        <v>17.23578397504627</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.81251556380552</v>
+        <v>31.81251556380555</v>
       </c>
       <c r="C16">
-        <v>19.79474335673122</v>
+        <v>19.79474335673136</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>12.27710148671737</v>
       </c>
       <c r="F16">
-        <v>44.60483281324073</v>
+        <v>44.60483281324085</v>
       </c>
       <c r="G16">
-        <v>33.05400991979659</v>
+        <v>33.05400991979679</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.23658114235515</v>
+        <v>10.2365811423552</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.07549179639918</v>
+        <v>31.07549179639917</v>
       </c>
       <c r="C17">
-        <v>19.35280502854628</v>
+        <v>19.35280502854621</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.01077501634598</v>
+        <v>12.01077501634582</v>
       </c>
       <c r="F17">
-        <v>43.5398885328717</v>
+        <v>43.53988853287174</v>
       </c>
       <c r="G17">
-        <v>32.37052187668189</v>
+        <v>32.37052187668198</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.16012751914288</v>
+        <v>10.16012751914298</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.30378055795008</v>
+        <v>16.30378055794997</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.64725921162439</v>
+        <v>30.64725921162437</v>
       </c>
       <c r="C18">
-        <v>19.09621798579238</v>
+        <v>19.09621798579247</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.855832565573</v>
+        <v>11.85583256557298</v>
       </c>
       <c r="F18">
         <v>42.92262958644829</v>
       </c>
       <c r="G18">
-        <v>31.97853318290223</v>
+        <v>31.97853318290225</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.09579552192152</v>
+        <v>16.0957955219215</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.50150998170403</v>
+        <v>30.50150998170398</v>
       </c>
       <c r="C19">
         <v>19.00892046052267</v>
@@ -1070,10 +1070,10 @@
         <v>11.80306571051803</v>
       </c>
       <c r="F19">
-        <v>42.71280342045197</v>
+        <v>42.71280342045204</v>
       </c>
       <c r="G19">
-        <v>31.8459950023415</v>
+        <v>31.84599500234156</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.02500018347406</v>
+        <v>16.02500018347409</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15439212713846</v>
+        <v>31.15439212713829</v>
       </c>
       <c r="C20">
-        <v>19.40009564070983</v>
+        <v>19.40009564070982</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.03930696417719</v>
+        <v>12.03930696417723</v>
       </c>
       <c r="F20">
-        <v>43.65373840213627</v>
+        <v>43.65373840213619</v>
       </c>
       <c r="G20">
-        <v>32.44315971301558</v>
+        <v>32.44315971301549</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.16801152513523</v>
+        <v>10.1680115251353</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.29766106815638</v>
+        <v>33.29766106815633</v>
       </c>
       <c r="C21">
-        <v>20.68656643897985</v>
+        <v>20.68656643897993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.81234767591298</v>
+        <v>12.812347675913</v>
       </c>
       <c r="F21">
-        <v>46.76026316602561</v>
+        <v>46.7602631660256</v>
       </c>
       <c r="G21">
-        <v>34.58672386664821</v>
+        <v>34.58672386664826</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.41004821779235</v>
+        <v>10.41004821779244</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.66391474070348</v>
+        <v>34.66391474070358</v>
       </c>
       <c r="C22">
-        <v>21.50856732098408</v>
+        <v>21.50856732098406</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.30290504935761</v>
+        <v>13.30290504935771</v>
       </c>
       <c r="F22">
-        <v>48.75369998908082</v>
+        <v>48.75369998908092</v>
       </c>
       <c r="G22">
-        <v>36.10339732442889</v>
+        <v>36.10339732442894</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.04461849385239</v>
+        <v>18.04461849385248</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.93766672655085</v>
+        <v>33.93766672655099</v>
       </c>
       <c r="C23">
-        <v>21.07143167323588</v>
+        <v>21.07143167323589</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.04237527643472</v>
+        <v>13.04237527643459</v>
       </c>
       <c r="F23">
-        <v>47.69285051794242</v>
+        <v>47.69285051794247</v>
       </c>
       <c r="G23">
-        <v>35.29404983871595</v>
+        <v>35.29404983871618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.49296011639515</v>
+        <v>10.49296011639511</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.6926629274313</v>
+        <v>17.69266292743125</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.11873536951665</v>
+        <v>31.11873536951658</v>
       </c>
       <c r="C24">
         <v>19.37872340198154</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.0264133741386</v>
+        <v>12.02641337413861</v>
       </c>
       <c r="F24">
-        <v>43.60228253015026</v>
+        <v>43.60228253015009</v>
       </c>
       <c r="G24">
-        <v>32.41031720012825</v>
+        <v>32.41031720012813</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.16443969660039</v>
+        <v>10.16443969660042</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.32478122127046</v>
+        <v>16.32478122127047</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.91143531131686</v>
+        <v>27.91143531131679</v>
       </c>
       <c r="C25">
-        <v>17.46027651760234</v>
+        <v>17.4602765176025</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.86289223176683</v>
+        <v>10.86289223176688</v>
       </c>
       <c r="F25">
-        <v>39.0072539137436</v>
+        <v>39.00725391374355</v>
       </c>
       <c r="G25">
-        <v>29.56799509402953</v>
+        <v>29.56799509402947</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.901440158603334</v>
+        <v>9.901440158603258</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.7665587001909</v>
+        <v>14.766558700191</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.3890391825884</v>
+        <v>25.38903918258842</v>
       </c>
       <c r="C2">
-        <v>15.95708225210925</v>
+        <v>15.95708225210922</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.943557144174351</v>
+        <v>9.943557144174287</v>
       </c>
       <c r="F2">
-        <v>35.44554449281463</v>
+        <v>35.4455444928147</v>
       </c>
       <c r="G2">
-        <v>27.50109762661401</v>
+        <v>27.50109762661412</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.771174084244251</v>
+        <v>9.771174084244274</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.54128162229063</v>
+        <v>13.54128162229061</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.57188341565631</v>
+        <v>23.57188341565627</v>
       </c>
       <c r="C3">
-        <v>14.87740553133857</v>
+        <v>14.8774055313384</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.279609539356773</v>
+        <v>9.279609539356885</v>
       </c>
       <c r="F3">
-        <v>33.08320101574004</v>
+        <v>33.08320101574009</v>
       </c>
       <c r="G3">
-        <v>26.11499520450885</v>
+        <v>26.114995204509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.715625446499637</v>
+        <v>9.715625446499681</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40089228706239</v>
+        <v>22.40089228706235</v>
       </c>
       <c r="C4">
-        <v>14.18322160394693</v>
+        <v>14.18322160394702</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.851262268537843</v>
+        <v>8.851262268537804</v>
       </c>
       <c r="F4">
         <v>31.59232508673401</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.695592100016452</v>
+        <v>9.695592100016446</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.09227971664488</v>
+        <v>12.0922797166449</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.9095235786011</v>
+        <v>21.90952357860115</v>
       </c>
       <c r="C5">
-        <v>13.89232473465812</v>
+        <v>13.89232473465799</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.671443427245087</v>
+        <v>8.671443427245157</v>
       </c>
       <c r="F5">
-        <v>30.97387369694633</v>
+        <v>30.97387369694631</v>
       </c>
       <c r="G5">
-        <v>24.9300971385605</v>
+        <v>24.9300971385604</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.690676408996378</v>
+        <v>9.690676408996184</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.85447364972412</v>
+        <v>11.85447364972409</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>21.82706772589725</v>
       </c>
       <c r="C6">
-        <v>13.84353367362079</v>
+        <v>13.84353367362085</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.641265050613136</v>
+        <v>8.641265050613054</v>
       </c>
       <c r="F6">
         <v>30.87052931163713</v>
       </c>
       <c r="G6">
-        <v>24.87351660268236</v>
+        <v>24.8735166026823</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.690048125418581</v>
+        <v>9.690048125418587</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.81458470065658</v>
+        <v>11.81458470065653</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39432329713256</v>
+        <v>22.3943232971326</v>
       </c>
       <c r="C7">
-        <v>14.17933108842945</v>
+        <v>14.17933108842938</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.848858559023473</v>
+        <v>8.848858559023597</v>
       </c>
       <c r="F7">
-        <v>31.58402826940765</v>
+        <v>31.5840282694076</v>
       </c>
       <c r="G7">
-        <v>25.26703591423092</v>
+        <v>25.2670359142309</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.69551302721079</v>
+        <v>9.695513027210829</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.08909945212511</v>
+        <v>12.08909945212516</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77377104591611</v>
+        <v>24.77377104591599</v>
       </c>
       <c r="C8">
-        <v>15.59119921675542</v>
+        <v>15.59119921675544</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.718879025894839</v>
+        <v>9.718879025894861</v>
       </c>
       <c r="F8">
-        <v>34.63630241707202</v>
+        <v>34.63630241707196</v>
       </c>
       <c r="G8">
-        <v>27.02164386466838</v>
+        <v>27.02164386466834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.748919995819142</v>
+        <v>9.748919995819225</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.24262028836104</v>
+        <v>13.24262028836103</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.01574008803102</v>
+        <v>29.01574008803083</v>
       </c>
       <c r="C9">
-        <v>18.119931773077</v>
+        <v>18.11993177307694</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.26428591400888</v>
+        <v>11.26428591400893</v>
       </c>
       <c r="F9">
-        <v>40.58160719433602</v>
+        <v>40.58160719433591</v>
       </c>
       <c r="G9">
-        <v>30.52094868330103</v>
+        <v>30.52094868330096</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.979228904228224</v>
+        <v>9.979228904228346</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.30315571939303</v>
+        <v>15.3031557193931</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.89604266931845</v>
+        <v>31.89604266931849</v>
       </c>
       <c r="C10">
-        <v>19.84485491831867</v>
+        <v>19.84485491831866</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.30725603466264</v>
+        <v>12.3072560346626</v>
       </c>
       <c r="F10">
-        <v>44.72572545790467</v>
+        <v>44.72572545790472</v>
       </c>
       <c r="G10">
-        <v>33.13216495393619</v>
+        <v>33.13216495393629</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.24564462202872</v>
+        <v>10.24564462202873</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.70219871169806</v>
+        <v>16.70219871169803</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.16085722288321</v>
+        <v>33.16085722288339</v>
       </c>
       <c r="C11">
-        <v>20.60434300274857</v>
+        <v>20.60434300274854</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>12.76312734323082</v>
       </c>
       <c r="F11">
-        <v>46.56120362313671</v>
+        <v>46.56120362313695</v>
       </c>
       <c r="G11">
-        <v>34.43625575437679</v>
+        <v>34.436255754377</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.39296852920106</v>
+        <v>10.39296852920103</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.31597076532229</v>
+        <v>17.31597076532226</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.63384060130832</v>
+        <v>33.63384060130841</v>
       </c>
       <c r="C12">
-        <v>20.88868524536018</v>
+        <v>20.88868524536004</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.93322522462206</v>
+        <v>12.93322522462198</v>
       </c>
       <c r="F12">
-        <v>47.24985719967863</v>
+        <v>47.24985719967847</v>
       </c>
       <c r="G12">
-        <v>34.95756993800551</v>
+        <v>34.95756993800537</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.45297993422098</v>
+        <v>10.45297993422092</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.54535796013421</v>
+        <v>17.54535796013414</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.5322310075113</v>
+        <v>33.53223100751124</v>
       </c>
       <c r="C13">
         <v>20.82758556829425</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.89670168102535</v>
+        <v>12.89670168102533</v>
       </c>
       <c r="F13">
-        <v>47.10181456831032</v>
+        <v>47.10181456831026</v>
       </c>
       <c r="G13">
-        <v>34.84531976968238</v>
+        <v>34.84531976968231</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.43985961554113</v>
+        <v>10.43985961554116</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.19988606206834</v>
+        <v>33.19988606206847</v>
       </c>
       <c r="C14">
-        <v>20.62779903295593</v>
+        <v>20.6277990329561</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>12.77717123348574</v>
       </c>
       <c r="F14">
-        <v>46.6179830665703</v>
+        <v>46.61798306657039</v>
       </c>
       <c r="G14">
-        <v>34.47915668137227</v>
+        <v>34.47915668137236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.39781821784694</v>
+        <v>10.39781821784689</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.33490199673502</v>
+        <v>17.33490199673503</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.99555526642218</v>
+        <v>32.99555526642221</v>
       </c>
       <c r="C15">
-        <v>20.50501136401486</v>
+        <v>20.50501136401491</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.70363035914934</v>
+        <v>12.70363035914931</v>
       </c>
       <c r="F15">
-        <v>46.32081324372244</v>
+        <v>46.32081324372241</v>
       </c>
       <c r="G15">
-        <v>34.25478643750022</v>
+        <v>34.25478643750024</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.37263129725447</v>
+        <v>10.37263129725438</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.23578397504627</v>
+        <v>17.23578397504626</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.81251556380555</v>
+        <v>31.81251556380552</v>
       </c>
       <c r="C16">
-        <v>19.79474335673136</v>
+        <v>19.79474335673122</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>12.27710148671737</v>
       </c>
       <c r="F16">
-        <v>44.60483281324085</v>
+        <v>44.60483281324073</v>
       </c>
       <c r="G16">
-        <v>33.05400991979679</v>
+        <v>33.05400991979659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.2365811423552</v>
+        <v>10.23658114235515</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.07549179639917</v>
+        <v>31.07549179639918</v>
       </c>
       <c r="C17">
-        <v>19.35280502854621</v>
+        <v>19.35280502854628</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.01077501634582</v>
+        <v>12.01077501634598</v>
       </c>
       <c r="F17">
-        <v>43.53988853287174</v>
+        <v>43.5398885328717</v>
       </c>
       <c r="G17">
-        <v>32.37052187668198</v>
+        <v>32.37052187668189</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.16012751914298</v>
+        <v>10.16012751914288</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.30378055794997</v>
+        <v>16.30378055795008</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.64725921162437</v>
+        <v>30.64725921162439</v>
       </c>
       <c r="C18">
-        <v>19.09621798579247</v>
+        <v>19.09621798579238</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.85583256557298</v>
+        <v>11.855832565573</v>
       </c>
       <c r="F18">
         <v>42.92262958644829</v>
       </c>
       <c r="G18">
-        <v>31.97853318290225</v>
+        <v>31.97853318290223</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.0957955219215</v>
+        <v>16.09579552192152</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.50150998170398</v>
+        <v>30.50150998170403</v>
       </c>
       <c r="C19">
         <v>19.00892046052267</v>
@@ -1070,10 +1070,10 @@
         <v>11.80306571051803</v>
       </c>
       <c r="F19">
-        <v>42.71280342045204</v>
+        <v>42.71280342045197</v>
       </c>
       <c r="G19">
-        <v>31.84599500234156</v>
+        <v>31.8459950023415</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.02500018347409</v>
+        <v>16.02500018347406</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15439212713829</v>
+        <v>31.15439212713846</v>
       </c>
       <c r="C20">
-        <v>19.40009564070982</v>
+        <v>19.40009564070983</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.03930696417723</v>
+        <v>12.03930696417719</v>
       </c>
       <c r="F20">
-        <v>43.65373840213619</v>
+        <v>43.65373840213627</v>
       </c>
       <c r="G20">
-        <v>32.44315971301549</v>
+        <v>32.44315971301558</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.1680115251353</v>
+        <v>10.16801152513523</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.29766106815633</v>
+        <v>33.29766106815638</v>
       </c>
       <c r="C21">
-        <v>20.68656643897993</v>
+        <v>20.68656643897985</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.812347675913</v>
+        <v>12.81234767591298</v>
       </c>
       <c r="F21">
-        <v>46.7602631660256</v>
+        <v>46.76026316602561</v>
       </c>
       <c r="G21">
-        <v>34.58672386664826</v>
+        <v>34.58672386664821</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.41004821779244</v>
+        <v>10.41004821779235</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.66391474070358</v>
+        <v>34.66391474070348</v>
       </c>
       <c r="C22">
-        <v>21.50856732098406</v>
+        <v>21.50856732098408</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.30290504935771</v>
+        <v>13.30290504935761</v>
       </c>
       <c r="F22">
-        <v>48.75369998908092</v>
+        <v>48.75369998908082</v>
       </c>
       <c r="G22">
-        <v>36.10339732442894</v>
+        <v>36.10339732442889</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.04461849385248</v>
+        <v>18.04461849385239</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.93766672655099</v>
+        <v>33.93766672655085</v>
       </c>
       <c r="C23">
-        <v>21.07143167323589</v>
+        <v>21.07143167323588</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.04237527643459</v>
+        <v>13.04237527643472</v>
       </c>
       <c r="F23">
-        <v>47.69285051794247</v>
+        <v>47.69285051794242</v>
       </c>
       <c r="G23">
-        <v>35.29404983871618</v>
+        <v>35.29404983871595</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.49296011639511</v>
+        <v>10.49296011639515</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.69266292743125</v>
+        <v>17.6926629274313</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.11873536951658</v>
+        <v>31.11873536951665</v>
       </c>
       <c r="C24">
         <v>19.37872340198154</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.02641337413861</v>
+        <v>12.0264133741386</v>
       </c>
       <c r="F24">
-        <v>43.60228253015009</v>
+        <v>43.60228253015026</v>
       </c>
       <c r="G24">
-        <v>32.41031720012813</v>
+        <v>32.41031720012825</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.16443969660042</v>
+        <v>10.16443969660039</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.32478122127047</v>
+        <v>16.32478122127046</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.91143531131679</v>
+        <v>27.91143531131686</v>
       </c>
       <c r="C25">
-        <v>17.4602765176025</v>
+        <v>17.46027651760234</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.86289223176688</v>
+        <v>10.86289223176683</v>
       </c>
       <c r="F25">
-        <v>39.00725391374355</v>
+        <v>39.0072539137436</v>
       </c>
       <c r="G25">
-        <v>29.56799509402947</v>
+        <v>29.56799509402953</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.901440158603258</v>
+        <v>9.901440158603334</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.766558700191</v>
+        <v>14.7665587001909</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38903918258842</v>
+        <v>25.38800053026071</v>
       </c>
       <c r="C2">
-        <v>15.95708225210922</v>
+        <v>15.95390944051275</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.943557144174287</v>
+        <v>9.954346200232782</v>
       </c>
       <c r="F2">
-        <v>35.4455444928147</v>
+        <v>35.42374089094321</v>
       </c>
       <c r="G2">
-        <v>27.50109762661412</v>
+        <v>26.6755705741147</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.52102593307175</v>
       </c>
       <c r="I2">
-        <v>9.771174084244274</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.755262259499428</v>
       </c>
       <c r="K2">
-        <v>13.54128162229061</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.54841101924637</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.57188341565627</v>
+        <v>23.57118975320594</v>
       </c>
       <c r="C3">
-        <v>14.8774055313384</v>
+        <v>14.87475167711594</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.279609539356885</v>
+        <v>9.289600171086224</v>
       </c>
       <c r="F3">
-        <v>33.08320101574009</v>
+        <v>33.06295340492314</v>
       </c>
       <c r="G3">
-        <v>26.114995204509</v>
+        <v>25.03819644676786</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.13457557804142</v>
       </c>
       <c r="I3">
-        <v>9.715625446499681</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.701291547016819</v>
       </c>
       <c r="K3">
-        <v>12.65961151291525</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.66627519266281</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40089228706235</v>
+        <v>22.40039812944594</v>
       </c>
       <c r="C4">
-        <v>14.18322160394702</v>
+        <v>14.18089077821374</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.851262268537804</v>
+        <v>8.860731475035603</v>
       </c>
       <c r="F4">
-        <v>31.59232508673401</v>
+        <v>31.57299700187489</v>
       </c>
       <c r="G4">
-        <v>25.27165107840948</v>
+        <v>24.0240887949459</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.29112795469374</v>
       </c>
       <c r="I4">
-        <v>9.695592100016446</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.682221961350479</v>
       </c>
       <c r="K4">
-        <v>12.0922797166449</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.0986338849221</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90952357860115</v>
+        <v>21.90910806990195</v>
       </c>
       <c r="C5">
-        <v>13.89232473465799</v>
+        <v>13.89012720608618</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.671443427245157</v>
+        <v>8.680692133211847</v>
       </c>
       <c r="F5">
-        <v>30.97387369694631</v>
+        <v>30.95492868648893</v>
       </c>
       <c r="G5">
-        <v>24.9300971385604</v>
+        <v>23.60882837897029</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.94956011394505</v>
       </c>
       <c r="I5">
-        <v>9.690676408996184</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.677697397121905</v>
       </c>
       <c r="K5">
-        <v>11.85447364972409</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.86069579397287</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82706772589725</v>
+        <v>21.82666512846004</v>
       </c>
       <c r="C6">
-        <v>13.84353367362085</v>
+        <v>13.84135839528389</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.641265050613054</v>
+        <v>8.650476652948933</v>
       </c>
       <c r="F6">
-        <v>30.87052931163713</v>
+        <v>30.85164843363466</v>
       </c>
       <c r="G6">
-        <v>24.8735166026823</v>
+        <v>23.53976181798126</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.89297899139418</v>
       </c>
       <c r="I6">
-        <v>9.690048125418587</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.677133954946081</v>
       </c>
       <c r="K6">
-        <v>11.81458470065653</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.82078456668873</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3943232971326</v>
+        <v>22.39383021039527</v>
       </c>
       <c r="C7">
-        <v>14.17933108842938</v>
+        <v>14.17700205293873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.848858559023597</v>
+        <v>8.858324824476355</v>
       </c>
       <c r="F7">
-        <v>31.5840282694076</v>
+        <v>31.56470531613719</v>
       </c>
       <c r="G7">
-        <v>25.2670359142309</v>
+        <v>24.01849620972482</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.28651248790587</v>
       </c>
       <c r="I7">
-        <v>9.695513027210829</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.68214817030456</v>
       </c>
       <c r="K7">
-        <v>12.08909945212516</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.09545186373195</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77377104591599</v>
+        <v>24.7728541948952</v>
       </c>
       <c r="C8">
-        <v>15.59119921675544</v>
+        <v>15.58820477283632</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.718879025894861</v>
+        <v>9.729399162505761</v>
       </c>
       <c r="F8">
-        <v>34.63630241707196</v>
+        <v>34.6151002961015</v>
       </c>
       <c r="G8">
-        <v>27.02164386466834</v>
+        <v>26.11290118625437</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.04142973760156</v>
       </c>
       <c r="I8">
-        <v>9.748919995819225</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.733553059951719</v>
       </c>
       <c r="K8">
-        <v>13.24262028836103</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.24959402102769</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.01574008803083</v>
+        <v>29.01387002059325</v>
       </c>
       <c r="C9">
-        <v>18.11993177307694</v>
+        <v>18.11564065934113</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.26428591400893</v>
+        <v>11.27663169606324</v>
       </c>
       <c r="F9">
-        <v>40.58160719433591</v>
+        <v>40.55684080786604</v>
       </c>
       <c r="G9">
-        <v>30.52094868330096</v>
+        <v>30.14861371755622</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.54218332322234</v>
       </c>
       <c r="I9">
-        <v>9.979228904228346</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.959916076070806</v>
       </c>
       <c r="K9">
-        <v>15.3031557193931</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15.31115813900158</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.89604266931849</v>
+        <v>31.89335539983438</v>
       </c>
       <c r="C10">
-        <v>19.84485491831866</v>
+        <v>19.83957471893611</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.3072560346626</v>
+        <v>12.32080361088967</v>
       </c>
       <c r="F10">
-        <v>44.72572545790472</v>
+        <v>44.69847540194537</v>
       </c>
       <c r="G10">
-        <v>33.13216495393629</v>
+        <v>33.08139942416267</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.15492987725157</v>
       </c>
       <c r="I10">
-        <v>10.24564462202873</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.22345454385055</v>
       </c>
       <c r="K10">
-        <v>16.70219871169803</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>16.71083470396628</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.16085722288339</v>
+        <v>33.15776026334481</v>
       </c>
       <c r="C11">
-        <v>20.60434300274854</v>
+        <v>20.59859376246873</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.76312734323082</v>
+        <v>12.77719256936879</v>
       </c>
       <c r="F11">
-        <v>46.56120362313695</v>
+        <v>46.53281865573927</v>
       </c>
       <c r="G11">
-        <v>34.436255754377</v>
+        <v>34.4613755467884</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.40725748252755</v>
       </c>
       <c r="I11">
-        <v>10.39296852920103</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.36948206054629</v>
       </c>
       <c r="K11">
-        <v>17.31597076532226</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17.32486603979203</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.63384060130841</v>
+        <v>33.63058168158045</v>
       </c>
       <c r="C12">
-        <v>20.88868524536004</v>
+        <v>20.8827544842706</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.93322522462198</v>
+        <v>12.94748236798204</v>
       </c>
       <c r="F12">
-        <v>47.24985719967847</v>
+        <v>47.22103999391415</v>
       </c>
       <c r="G12">
-        <v>34.95756993800537</v>
+        <v>34.98311944925185</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.910870223052</v>
       </c>
       <c r="I12">
-        <v>10.45297993422092</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.42900490541001</v>
       </c>
       <c r="K12">
-        <v>17.54535796013414</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.55434696425885</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.53223100751124</v>
+        <v>33.52900729735996</v>
       </c>
       <c r="C13">
-        <v>20.82758556829425</v>
+        <v>20.82169409574023</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.89670168102533</v>
+        <v>12.9109176732503</v>
       </c>
       <c r="F13">
-        <v>47.10181456831026</v>
+        <v>47.07309059499227</v>
       </c>
       <c r="G13">
-        <v>34.84531976968231</v>
+        <v>34.87077655757027</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.8023890025657</v>
       </c>
       <c r="I13">
-        <v>10.43985961554116</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.41598969517609</v>
       </c>
       <c r="K13">
-        <v>17.49608633386599</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.50505535544502</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.19988606206847</v>
+        <v>33.19677592361815</v>
       </c>
       <c r="C14">
-        <v>20.6277990329561</v>
+        <v>20.62203494462445</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.77717123348574</v>
+        <v>12.79125233071154</v>
       </c>
       <c r="F14">
-        <v>46.61798306657039</v>
+        <v>46.58956259966715</v>
       </c>
       <c r="G14">
-        <v>34.47915668137236</v>
+        <v>34.50431174648808</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.44868246922847</v>
       </c>
       <c r="I14">
-        <v>10.39781821784689</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.37429150527845</v>
       </c>
       <c r="K14">
-        <v>17.33490199673503</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.34380507369566</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.99555526642221</v>
+        <v>32.99251375982281</v>
       </c>
       <c r="C15">
-        <v>20.50501136401491</v>
+        <v>20.49932475511265</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.70363035914931</v>
+        <v>12.71762829641748</v>
       </c>
       <c r="F15">
-        <v>46.32081324372241</v>
+        <v>46.29257830260242</v>
       </c>
       <c r="G15">
-        <v>34.25478643750024</v>
+        <v>34.27975721901609</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.23207024484027</v>
       </c>
       <c r="I15">
-        <v>10.37263129725438</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.34931512973426</v>
       </c>
       <c r="K15">
-        <v>17.23578397504626</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17.2446460685816</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.81251556380552</v>
+        <v>31.80985419560229</v>
       </c>
       <c r="C16">
-        <v>19.79474335673122</v>
+        <v>19.78949333217165</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.27710148671737</v>
+        <v>12.29061465531775</v>
       </c>
       <c r="F16">
-        <v>44.60483281324073</v>
+        <v>44.57765668436658</v>
       </c>
       <c r="G16">
-        <v>33.05400991979659</v>
+        <v>32.9910591298358</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.07672519009976</v>
       </c>
       <c r="I16">
-        <v>10.23658114235515</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.214476088943</v>
       </c>
       <c r="K16">
-        <v>16.66164955419768</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>16.6702679963834</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.07549179639918</v>
+        <v>31.07305303846609</v>
       </c>
       <c r="C17">
-        <v>19.35280502854628</v>
+        <v>19.34781718871392</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.01077501634598</v>
+        <v>12.0239834116017</v>
       </c>
       <c r="F17">
-        <v>43.5398885328717</v>
+        <v>43.51335953237936</v>
       </c>
       <c r="G17">
-        <v>32.37052187668189</v>
+        <v>32.22905633723784</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.39281195205002</v>
       </c>
       <c r="I17">
-        <v>10.16012751914288</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.13876908613453</v>
       </c>
       <c r="K17">
-        <v>16.30378055795008</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>16.31224193477875</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.64725921162439</v>
+        <v>30.64494501992201</v>
       </c>
       <c r="C18">
-        <v>19.09621798579238</v>
+        <v>19.09137923102748</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.855832565573</v>
+        <v>11.8688629255421</v>
       </c>
       <c r="F18">
-        <v>42.92262958644829</v>
+        <v>42.89647244399442</v>
       </c>
       <c r="G18">
-        <v>31.97853318290223</v>
+        <v>31.7905415731972</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.00058724177086</v>
       </c>
       <c r="I18">
-        <v>10.1185824599099</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.09765461067294</v>
       </c>
       <c r="K18">
-        <v>16.09579552192152</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>16.10416385776493</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.50150998170403</v>
+        <v>30.49923740601915</v>
       </c>
       <c r="C19">
-        <v>19.00892046052267</v>
+        <v>19.0041319201648</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.80306571051803</v>
+        <v>11.816035318079</v>
       </c>
       <c r="F19">
-        <v>42.71280342045197</v>
+        <v>42.68677216884235</v>
       </c>
       <c r="G19">
-        <v>31.8459950023415</v>
+        <v>31.64199577352922</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.86797064680351</v>
       </c>
       <c r="I19">
-        <v>10.10491980484427</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.08413792149107</v>
       </c>
       <c r="K19">
-        <v>16.02500018347406</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>16.03333656089263</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15439212713846</v>
+        <v>31.15193004031931</v>
       </c>
       <c r="C20">
-        <v>19.40009564070983</v>
+        <v>19.3950800761835</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.03930696417719</v>
+        <v>12.05254808583351</v>
       </c>
       <c r="F20">
-        <v>43.65373840213627</v>
+        <v>43.62714056161992</v>
       </c>
       <c r="G20">
-        <v>32.44315971301558</v>
+        <v>32.31018478737291</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.46549417375672</v>
       </c>
       <c r="I20">
-        <v>10.16801152513523</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.14657348979779</v>
       </c>
       <c r="K20">
-        <v>16.34209715883642</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>16.35057553695225</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.29766106815638</v>
+        <v>33.2945177685181</v>
       </c>
       <c r="C21">
-        <v>20.68656643897985</v>
+        <v>20.68076505125015</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.81234767591298</v>
+        <v>12.82646850602187</v>
       </c>
       <c r="F21">
-        <v>46.76026316602561</v>
+        <v>46.73175363497352</v>
       </c>
       <c r="G21">
-        <v>34.58672386664821</v>
+        <v>34.6119674462251</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.55256429015139</v>
       </c>
       <c r="I21">
-        <v>10.41004821779235</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.38642062927574</v>
       </c>
       <c r="K21">
-        <v>17.38232614066193</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>17.39124871086173</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.66391474070348</v>
+        <v>34.66028559217514</v>
       </c>
       <c r="C22">
-        <v>21.50856732098408</v>
+        <v>21.50222886043446</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.30290504935761</v>
+        <v>13.31757690709171</v>
       </c>
       <c r="F22">
-        <v>48.75369998908082</v>
+        <v>48.72392551596839</v>
       </c>
       <c r="G22">
-        <v>36.10339732442889</v>
+        <v>36.12989850747088</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.01949976754477</v>
       </c>
       <c r="I22">
-        <v>10.5931040925567</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.56805933981651</v>
       </c>
       <c r="K22">
-        <v>18.04461849385239</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>18.05380519465384</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.93766672655085</v>
+        <v>33.93430114381115</v>
       </c>
       <c r="C23">
-        <v>21.07143167323588</v>
+        <v>21.06538245856613</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.04237527643472</v>
+        <v>13.05675521017887</v>
       </c>
       <c r="F23">
-        <v>47.69285051794242</v>
+        <v>47.66375328060699</v>
       </c>
       <c r="G23">
-        <v>35.29404983871595</v>
+        <v>35.31987788675092</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.23618892459452</v>
       </c>
       <c r="I23">
-        <v>10.49296011639515</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.46867033129779</v>
       </c>
       <c r="K23">
-        <v>17.6926629274313</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>17.70171117429095</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.11873536951665</v>
+        <v>31.11628384022639</v>
       </c>
       <c r="C24">
-        <v>19.37872340198154</v>
+        <v>19.37372037683897</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.0264133741386</v>
+        <v>12.03963970897291</v>
       </c>
       <c r="F24">
-        <v>43.60228253015026</v>
+        <v>43.5757158126532</v>
       </c>
       <c r="G24">
-        <v>32.41031720012825</v>
+        <v>32.27350830655542</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.43263156792915</v>
       </c>
       <c r="I24">
-        <v>10.16443969660039</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.14303764533713</v>
       </c>
       <c r="K24">
-        <v>16.32478122127046</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>16.33325192162669</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.91143531131686</v>
+        <v>27.90984005570001</v>
       </c>
       <c r="C25">
-        <v>17.46027651760234</v>
+        <v>17.45633926698047</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.86289223176683</v>
+        <v>10.87476909479925</v>
       </c>
       <c r="F25">
-        <v>39.0072539137436</v>
+        <v>38.98340726858299</v>
       </c>
       <c r="G25">
-        <v>29.56799509402953</v>
+        <v>29.06422228188908</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.58875235630138</v>
       </c>
       <c r="I25">
-        <v>9.901440158603334</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.883193664121254</v>
       </c>
       <c r="K25">
-        <v>14.7665587001909</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>14.77430366537317</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38800053026071</v>
+        <v>29.9154948419485</v>
       </c>
       <c r="C2">
-        <v>15.95390944051275</v>
+        <v>18.22569293950199</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.954346200232782</v>
+        <v>5.910570436611313</v>
       </c>
       <c r="F2">
-        <v>35.42374089094321</v>
+        <v>42.50961612452864</v>
       </c>
       <c r="G2">
-        <v>26.6755705741147</v>
+        <v>2.098643476670444</v>
       </c>
       <c r="H2">
-        <v>27.52102593307175</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.755262259499428</v>
+        <v>6.410842591765295</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.54841101924637</v>
+        <v>6.877590880713861</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.57922049344083</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.57118975320594</v>
+        <v>28.06949122314789</v>
       </c>
       <c r="C3">
-        <v>14.87475167711594</v>
+        <v>16.87233780066781</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.289600171086224</v>
+        <v>5.77652743281202</v>
       </c>
       <c r="F3">
-        <v>33.06295340492314</v>
+        <v>40.92071127895012</v>
       </c>
       <c r="G3">
-        <v>25.03819644676786</v>
+        <v>2.113098611527288</v>
       </c>
       <c r="H3">
-        <v>26.13457557804142</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.701291547016819</v>
+        <v>6.490752949002014</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.66627519266281</v>
+        <v>6.727998069716194</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>14.78970962867497</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.40039812944594</v>
+        <v>26.9056773517388</v>
       </c>
       <c r="C4">
-        <v>14.18089077821374</v>
+        <v>16.00478499274857</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.860731475035603</v>
+        <v>5.695500971447527</v>
       </c>
       <c r="F4">
-        <v>31.57299700187489</v>
+        <v>39.96183763782864</v>
       </c>
       <c r="G4">
-        <v>24.0240887949459</v>
+        <v>2.122125762023331</v>
       </c>
       <c r="H4">
-        <v>25.29112795469374</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.682221961350479</v>
+        <v>6.542568028396893</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.0986338849221</v>
+        <v>6.638574221867363</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.92379263843374</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.90910806990195</v>
+        <v>26.42399572854242</v>
       </c>
       <c r="C5">
-        <v>13.89012720608618</v>
+        <v>15.64179554365441</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.680692133211847</v>
+        <v>5.662729286330133</v>
       </c>
       <c r="F5">
-        <v>30.95492868648893</v>
+        <v>39.57545009748583</v>
       </c>
       <c r="G5">
-        <v>23.60882837897029</v>
+        <v>2.125847459250222</v>
       </c>
       <c r="H5">
-        <v>24.94956011394505</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.677697397121905</v>
+        <v>6.564347449165867</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.86069579397287</v>
+        <v>6.602764004305124</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.97961528413497</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.82666512846004</v>
+        <v>26.34357363955462</v>
       </c>
       <c r="C6">
-        <v>13.84135839528389</v>
+        <v>15.58094347070537</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.650476652948933</v>
+        <v>5.657300513385039</v>
       </c>
       <c r="F6">
-        <v>30.85164843363466</v>
+        <v>39.51155973634668</v>
       </c>
       <c r="G6">
-        <v>23.53976181798126</v>
+        <v>2.126468180059005</v>
       </c>
       <c r="H6">
-        <v>24.89297899139418</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.677133954946081</v>
+        <v>6.568003324413183</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.82078456668873</v>
+        <v>6.596856466936874</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.98895514425142</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39383021039527</v>
+        <v>26.89921088123409</v>
       </c>
       <c r="C7">
-        <v>14.17700205293873</v>
+        <v>15.99992818817812</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.858324824476355</v>
+        <v>5.695058091108235</v>
       </c>
       <c r="F7">
-        <v>31.56470531613719</v>
+        <v>39.95660877559678</v>
       </c>
       <c r="G7">
-        <v>24.01849620972482</v>
+        <v>2.122175773614925</v>
       </c>
       <c r="H7">
-        <v>25.28651248790587</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.68214817030456</v>
+        <v>6.542859095817395</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.09545186373195</v>
+        <v>6.638088690722609</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.9245407340351</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.7728541948952</v>
+        <v>29.28538439417755</v>
       </c>
       <c r="C8">
-        <v>15.58820477283632</v>
+        <v>17.7664875632972</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.729399162505761</v>
+        <v>5.864040224427283</v>
       </c>
       <c r="F8">
-        <v>34.6151002961015</v>
+        <v>41.95836663504745</v>
       </c>
       <c r="G8">
-        <v>26.11290118625437</v>
+        <v>2.103599260301414</v>
       </c>
       <c r="H8">
-        <v>27.04142973760156</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.733553059951719</v>
+        <v>6.437807145593129</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.24959402102769</v>
+        <v>6.825519275114182</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.65076892537011</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.01387002059325</v>
+        <v>33.72094996925911</v>
       </c>
       <c r="C9">
-        <v>18.11564065934113</v>
+        <v>20.9535304326278</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.27663169606324</v>
+        <v>6.209415129198302</v>
       </c>
       <c r="F9">
-        <v>40.55684080786604</v>
+        <v>46.01347868384503</v>
       </c>
       <c r="G9">
-        <v>30.14861371755622</v>
+        <v>2.068121869207352</v>
       </c>
       <c r="H9">
-        <v>30.54218332322234</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.959916076070806</v>
+        <v>6.255127220227818</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.31115813900158</v>
+        <v>7.211578715301632</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>14.15434082742284</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.89335539983438</v>
+        <v>37.00498440132777</v>
       </c>
       <c r="C10">
-        <v>19.83957471893611</v>
+        <v>23.14730406258968</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.32080361088967</v>
+        <v>6.478141165562455</v>
       </c>
       <c r="F10">
-        <v>44.69847540194537</v>
+        <v>49.07542801791237</v>
       </c>
       <c r="G10">
-        <v>33.08139942416267</v>
+        <v>2.042229806110067</v>
       </c>
       <c r="H10">
-        <v>33.15492987725157</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.22345454385055</v>
+        <v>6.137791748075811</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.71083470396628</v>
+        <v>7.505858953847302</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>13.8179789649356</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.15776026334481</v>
+        <v>38.4837514743717</v>
       </c>
       <c r="C11">
-        <v>20.59859376246873</v>
+        <v>24.11896258384625</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.77719256936879</v>
+        <v>6.605458947452925</v>
       </c>
       <c r="F11">
-        <v>46.53281865573927</v>
+        <v>50.48977143614862</v>
       </c>
       <c r="G11">
-        <v>34.4613755467884</v>
+        <v>2.030378343592523</v>
       </c>
       <c r="H11">
-        <v>34.40725748252755</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.36948206054629</v>
+        <v>6.088879035662589</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.32486603979203</v>
+        <v>7.642046642092991</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.67228877255479</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.63058168158045</v>
+        <v>39.03880665879607</v>
       </c>
       <c r="C12">
-        <v>20.8827544842706</v>
+        <v>24.48369963863928</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.94748236798204</v>
+        <v>6.654589751577944</v>
       </c>
       <c r="F12">
-        <v>47.22103999391415</v>
+        <v>51.02893257990666</v>
       </c>
       <c r="G12">
-        <v>34.98311944925185</v>
+        <v>2.02586887405286</v>
       </c>
       <c r="H12">
-        <v>34.910870223052</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.42900490541001</v>
+        <v>6.071086698390952</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.55434696425885</v>
+        <v>7.693962630645607</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.61830500084815</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.52900729735996</v>
+        <v>38.91947265825146</v>
       </c>
       <c r="C13">
-        <v>20.82169409574023</v>
+        <v>24.40527948926211</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.9109176732503</v>
+        <v>6.643964287217361</v>
       </c>
       <c r="F13">
-        <v>47.07309059499227</v>
+        <v>50.91264527247117</v>
       </c>
       <c r="G13">
-        <v>34.87077655757027</v>
+        <v>2.026841226446396</v>
       </c>
       <c r="H13">
-        <v>34.8023890025657</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.41598969517609</v>
+        <v>6.07488451482927</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.50505535544502</v>
+        <v>7.682765957687776</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.62987614655872</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.19677592361815</v>
+        <v>38.52951062792391</v>
       </c>
       <c r="C14">
-        <v>20.62203494462445</v>
+        <v>24.14903038973443</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.79125233071154</v>
+        <v>6.609481344395543</v>
       </c>
       <c r="F14">
-        <v>46.58956259966715</v>
+        <v>50.53405323375497</v>
       </c>
       <c r="G14">
-        <v>34.50431174648808</v>
+        <v>2.03000784978121</v>
       </c>
       <c r="H14">
-        <v>34.44868246922847</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.37429150527845</v>
+        <v>6.087400045324939</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.34380507369566</v>
+        <v>7.646310787390102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.66782284555183</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.99251375982281</v>
+        <v>38.29002825263128</v>
       </c>
       <c r="C15">
-        <v>20.49932475511265</v>
+        <v>23.99167123750287</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.71762829641748</v>
+        <v>6.588485396474766</v>
       </c>
       <c r="F15">
-        <v>46.29257830260242</v>
+        <v>50.30263906703074</v>
       </c>
       <c r="G15">
-        <v>34.27975721901609</v>
+        <v>2.031944325673483</v>
       </c>
       <c r="H15">
-        <v>34.23207024484027</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.34931512973426</v>
+        <v>6.09516417361189</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.2446460685816</v>
+        <v>7.624026363604425</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.69122525450903</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.80985419560229</v>
+        <v>36.90761649064592</v>
       </c>
       <c r="C16">
-        <v>19.78949333217165</v>
+        <v>23.08332143376673</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.29061465531775</v>
+        <v>6.469938030148893</v>
       </c>
       <c r="F16">
-        <v>44.57765668436658</v>
+        <v>48.98346682349944</v>
       </c>
       <c r="G16">
-        <v>32.9910591298358</v>
+        <v>2.04300195399058</v>
       </c>
       <c r="H16">
-        <v>33.07672519009976</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.214476088943</v>
+        <v>6.14108520305593</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.6702679963834</v>
+        <v>7.497006124845895</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>13.82765814183065</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.07305303846609</v>
+        <v>36.05005357606002</v>
       </c>
       <c r="C17">
-        <v>19.34781718871392</v>
+        <v>22.51971994569869</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.0239834116017</v>
+        <v>6.398635370118376</v>
       </c>
       <c r="F17">
-        <v>43.51335953237936</v>
+        <v>48.1799823943695</v>
       </c>
       <c r="G17">
-        <v>32.22905633723784</v>
+        <v>2.049759449908342</v>
       </c>
       <c r="H17">
-        <v>32.39281195205002</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13876908613453</v>
+        <v>6.1704560951622</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.31224193477875</v>
+        <v>7.419681615330945</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.91331547602408</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.64494501992201</v>
+        <v>35.55311771292679</v>
       </c>
       <c r="C18">
-        <v>19.09137923102748</v>
+        <v>22.19303628774828</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.8688629255421</v>
+        <v>6.358088191484803</v>
       </c>
       <c r="F18">
-        <v>42.89647244399442</v>
+        <v>47.71981749207593</v>
       </c>
       <c r="G18">
-        <v>31.7905415731972</v>
+        <v>2.05364007330051</v>
       </c>
       <c r="H18">
-        <v>32.00058724177086</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.09765461067294</v>
+        <v>6.18776329546783</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.10416385776493</v>
+        <v>7.375423499902969</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.96326286198245</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.49923740601915</v>
+        <v>35.38421307756312</v>
       </c>
       <c r="C19">
-        <v>19.0041319201648</v>
+        <v>22.08197896077735</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.816035318079</v>
+        <v>6.344434182348838</v>
       </c>
       <c r="F19">
-        <v>42.68677216884235</v>
+        <v>47.56434136259018</v>
       </c>
       <c r="G19">
-        <v>31.64199577352922</v>
+        <v>2.054953243393103</v>
       </c>
       <c r="H19">
-        <v>31.86797064680351</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.08413792149107</v>
+        <v>6.193691927865534</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.03333656089263</v>
+        <v>7.360475551627451</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.98028736673957</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15193004031931</v>
+        <v>36.14172015711609</v>
       </c>
       <c r="C20">
-        <v>19.3950800761835</v>
+        <v>22.57997273738486</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.05254808583351</v>
+        <v>6.406176364487968</v>
       </c>
       <c r="F20">
-        <v>43.62714056161992</v>
+        <v>48.26530699481396</v>
       </c>
       <c r="G20">
-        <v>32.31018478737291</v>
+        <v>2.049040809406971</v>
       </c>
       <c r="H20">
-        <v>32.46549417375672</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.14657348979779</v>
+        <v>6.167286108210398</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.35057553695225</v>
+        <v>7.427890447439285</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.90412591506065</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.2945177685181</v>
+        <v>38.64417964492585</v>
       </c>
       <c r="C21">
-        <v>20.68076505125015</v>
+        <v>24.22437898159871</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.82646850602187</v>
+        <v>6.619583200626214</v>
       </c>
       <c r="F21">
-        <v>46.73175363497352</v>
+        <v>50.6451527691722</v>
       </c>
       <c r="G21">
-        <v>34.6119674462251</v>
+        <v>2.029078419490007</v>
       </c>
       <c r="H21">
-        <v>34.55256429015139</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.38642062927574</v>
+        <v>6.083703320005011</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.39124871086173</v>
+        <v>7.657009051861897</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.65664356712823</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.66028559217514</v>
+        <v>40.25140430716266</v>
       </c>
       <c r="C22">
-        <v>21.50222886043446</v>
+        <v>25.28073305533357</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.31757690709171</v>
+        <v>6.764527004181556</v>
       </c>
       <c r="F22">
-        <v>48.72392551596839</v>
+        <v>52.22177046213645</v>
       </c>
       <c r="G22">
-        <v>36.12989850747088</v>
+        <v>2.01589940890015</v>
       </c>
       <c r="H22">
-        <v>36.01949976754477</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.56805933981651</v>
+        <v>6.033387808291788</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.05380519465384</v>
+        <v>7.808774471134612</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>13.50189971347907</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.93430114381115</v>
+        <v>39.39593312009974</v>
       </c>
       <c r="C23">
-        <v>21.06538245856613</v>
+        <v>24.71840002313846</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.05675521017887</v>
+        <v>6.686594291392901</v>
       </c>
       <c r="F23">
-        <v>47.66375328060699</v>
+        <v>51.37813663351761</v>
       </c>
       <c r="G23">
-        <v>35.31987788675092</v>
+        <v>2.022949613322727</v>
       </c>
       <c r="H23">
-        <v>35.23618892459452</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.46867033129779</v>
+        <v>6.059813057761579</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.70171117429095</v>
+        <v>7.727582366493602</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.58379577781193</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.11628384022639</v>
+        <v>36.1002899256995</v>
       </c>
       <c r="C24">
-        <v>19.37372037683897</v>
+        <v>22.55274078237784</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.03963970897291</v>
+        <v>6.402765706367817</v>
       </c>
       <c r="F24">
-        <v>43.5757158126532</v>
+        <v>48.22672626762884</v>
       </c>
       <c r="G24">
-        <v>32.27350830655542</v>
+        <v>2.049365719525302</v>
       </c>
       <c r="H24">
-        <v>32.43263156792915</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.14303764533713</v>
+        <v>6.168717952914013</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.33325192162669</v>
+        <v>7.424178622195587</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.90827833920056</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.90984005570001</v>
+        <v>32.54698427946153</v>
       </c>
       <c r="C25">
-        <v>17.45633926698047</v>
+        <v>20.11901554410516</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.87476909479925</v>
+        <v>6.113883396861517</v>
       </c>
       <c r="F25">
-        <v>38.98340726858299</v>
+        <v>44.90262294769222</v>
       </c>
       <c r="G25">
-        <v>29.06422228188908</v>
+        <v>2.077656105801338</v>
       </c>
       <c r="H25">
-        <v>29.58875235630138</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.883193664121254</v>
+        <v>6.301810249274436</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.77430366537317</v>
+        <v>7.10524428580316</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.28398212195219</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.9154948419485</v>
+        <v>13.23040454450106</v>
       </c>
       <c r="C2">
-        <v>18.22569293950199</v>
+        <v>6.838117295988599</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.910570436611313</v>
+        <v>4.789118190549785</v>
       </c>
       <c r="F2">
-        <v>42.50961612452864</v>
+        <v>67.82340270775069</v>
       </c>
       <c r="G2">
-        <v>2.098643476670444</v>
+        <v>2.202600836984434</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.410842591765295</v>
+        <v>12.48032642520028</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.34912285412052</v>
       </c>
       <c r="L2">
-        <v>6.877590880713861</v>
+        <v>3.637747862774833</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.662428876225751</v>
       </c>
       <c r="N2">
-        <v>14.57922049344083</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.06949122314789</v>
+        <v>12.73437962420028</v>
       </c>
       <c r="C3">
-        <v>16.87233780066781</v>
+        <v>6.365877793178392</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.77652743281202</v>
+        <v>4.64826184001843</v>
       </c>
       <c r="F3">
-        <v>40.92071127895012</v>
+        <v>64.77137657863315</v>
       </c>
       <c r="G3">
-        <v>2.113098611527288</v>
+        <v>2.213369005622769</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.490752949002014</v>
+        <v>12.12466403462287</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.94135945475036</v>
       </c>
       <c r="L3">
-        <v>6.727998069716194</v>
+        <v>3.477438739532653</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.76812578453918</v>
       </c>
       <c r="N3">
-        <v>14.78970962867497</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.9056773517388</v>
+        <v>12.43706677925204</v>
       </c>
       <c r="C4">
-        <v>16.00478499274857</v>
+        <v>6.061808856129455</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.695500971447527</v>
+        <v>4.565367093151911</v>
       </c>
       <c r="F4">
-        <v>39.96183763782864</v>
+        <v>62.85643169111261</v>
       </c>
       <c r="G4">
-        <v>2.122125762023331</v>
+        <v>2.220123255890443</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.542568028396893</v>
+        <v>11.90322423980784</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.69629128969224</v>
       </c>
       <c r="L4">
-        <v>6.638574221867363</v>
+        <v>3.410346033724843</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.843509616924867</v>
       </c>
       <c r="N4">
-        <v>14.92379263843374</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.42399572854242</v>
+        <v>12.31786804143868</v>
       </c>
       <c r="C5">
-        <v>15.64179554365441</v>
+        <v>5.934294438865376</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.662729286330133</v>
+        <v>4.532502951584683</v>
       </c>
       <c r="F5">
-        <v>39.57545009748583</v>
+        <v>62.06623684375759</v>
       </c>
       <c r="G5">
-        <v>2.125847459250222</v>
+        <v>2.222914191758576</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.564347449165867</v>
+        <v>11.812218238464</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.59785600152547</v>
       </c>
       <c r="L5">
-        <v>6.602764004305124</v>
+        <v>3.450470068090349</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.876727374435577</v>
       </c>
       <c r="N5">
-        <v>14.97961528413497</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.34357363955462</v>
+        <v>12.2981976785394</v>
       </c>
       <c r="C6">
-        <v>15.58094347070537</v>
+        <v>5.912901601618394</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.657300513385039</v>
+        <v>4.527101589733745</v>
       </c>
       <c r="F6">
-        <v>39.51155973634668</v>
+        <v>61.93444751626485</v>
       </c>
       <c r="G6">
-        <v>2.126468180059005</v>
+        <v>2.223380025697412</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.568003324413183</v>
+        <v>11.79706062003483</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.58160046425306</v>
       </c>
       <c r="L6">
-        <v>6.596856466936874</v>
+        <v>3.457192682175557</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.882390220813591</v>
       </c>
       <c r="N6">
-        <v>14.98895514425142</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.89921088123409</v>
+        <v>12.43545110431339</v>
       </c>
       <c r="C7">
-        <v>15.99992818817812</v>
+        <v>6.060103812830408</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.695058091108235</v>
+        <v>4.564920149468302</v>
       </c>
       <c r="F7">
-        <v>39.95660877559678</v>
+        <v>62.84581397295516</v>
       </c>
       <c r="G7">
-        <v>2.122175773614925</v>
+        <v>2.220160736052664</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.542859095817395</v>
+        <v>11.90199999998436</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.69495782078559</v>
       </c>
       <c r="L7">
-        <v>6.638088690722609</v>
+        <v>3.410883119430057</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.843947662329207</v>
       </c>
       <c r="N7">
-        <v>14.9245407340351</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.28538439417755</v>
+        <v>13.05794791221825</v>
       </c>
       <c r="C8">
-        <v>17.7664875632972</v>
+        <v>6.678182855446158</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.864040224427283</v>
+        <v>4.73981316898587</v>
       </c>
       <c r="F8">
-        <v>41.95836663504745</v>
+        <v>66.77981077940862</v>
       </c>
       <c r="G8">
-        <v>2.103599260301414</v>
+        <v>2.206285795560564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.437807145593129</v>
+        <v>12.35832837075789</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.20748199986455</v>
       </c>
       <c r="L8">
-        <v>6.825519275114182</v>
+        <v>3.582948479845676</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.696609886532256</v>
       </c>
       <c r="N8">
-        <v>14.65076892537011</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.72094996925911</v>
+        <v>14.33112990941491</v>
       </c>
       <c r="C9">
-        <v>20.9535304326278</v>
+        <v>7.781089193163162</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.209415129198302</v>
+        <v>5.124602924711121</v>
       </c>
       <c r="F9">
-        <v>46.01347868384503</v>
+        <v>74.15570964703461</v>
       </c>
       <c r="G9">
-        <v>2.068121869207352</v>
+        <v>2.180074881078233</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.255127220227818</v>
+        <v>13.22928380317203</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.25096756405</v>
       </c>
       <c r="L9">
-        <v>7.211578715301632</v>
+        <v>3.97149803513723</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.497744724635114</v>
       </c>
       <c r="N9">
-        <v>14.15434082742284</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.00498440132777</v>
+        <v>15.29363193704785</v>
       </c>
       <c r="C10">
-        <v>23.14730406258968</v>
+        <v>8.529314244370969</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.478141165562455</v>
+        <v>5.608654260805221</v>
       </c>
       <c r="F10">
-        <v>49.07542801791237</v>
+        <v>79.36077302030704</v>
       </c>
       <c r="G10">
-        <v>2.042229806110067</v>
+        <v>2.161218643330651</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.137791748075811</v>
+        <v>13.8559795253832</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.03763656935537</v>
       </c>
       <c r="L10">
-        <v>7.505858953847302</v>
+        <v>4.249448385694848</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.417054505328879</v>
       </c>
       <c r="N10">
-        <v>13.8179789649356</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.4837514743717</v>
+        <v>15.73699283662913</v>
       </c>
       <c r="C11">
-        <v>24.11896258384625</v>
+        <v>8.857367995764807</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.605458947452925</v>
+        <v>5.821786366064821</v>
       </c>
       <c r="F11">
-        <v>50.48977143614862</v>
+        <v>81.68359752073505</v>
       </c>
       <c r="G11">
-        <v>2.030378343592523</v>
+        <v>2.152674348930375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.088879035662589</v>
+        <v>14.13877525677457</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.39963908294652</v>
       </c>
       <c r="L11">
-        <v>7.642046642092991</v>
+        <v>4.375032196236969</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.639417099851581</v>
       </c>
       <c r="N11">
-        <v>13.67228877255479</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.03880665879607</v>
+        <v>15.90569218689292</v>
       </c>
       <c r="C12">
-        <v>24.48369963863928</v>
+        <v>8.979931399098115</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.654589751577944</v>
+        <v>5.901550758428317</v>
       </c>
       <c r="F12">
-        <v>51.02893257990666</v>
+        <v>82.5570285099961</v>
       </c>
       <c r="G12">
-        <v>2.02586887405286</v>
+        <v>2.14943857034093</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.071086698390952</v>
+        <v>14.24559905416717</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.57691162357479</v>
       </c>
       <c r="L12">
-        <v>7.693962630645607</v>
+        <v>4.422538575610701</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.75351763691318</v>
       </c>
       <c r="N12">
-        <v>13.61830500084815</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.91947265825146</v>
+        <v>15.86932310848282</v>
       </c>
       <c r="C13">
-        <v>24.40527948926211</v>
+        <v>8.953607292961765</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.643964287217361</v>
+        <v>5.884412811110685</v>
       </c>
       <c r="F13">
-        <v>50.91264527247117</v>
+        <v>82.36918761279152</v>
       </c>
       <c r="G13">
-        <v>2.026841226446396</v>
+        <v>2.150135551553505</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.07488451482927</v>
+        <v>14.22260319306172</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.53468305883761</v>
       </c>
       <c r="L13">
-        <v>7.682765957687776</v>
+        <v>4.412308143472679</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.72898887378456</v>
       </c>
       <c r="N13">
-        <v>13.62987614655872</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.52951062792391</v>
+        <v>15.75085539356698</v>
       </c>
       <c r="C14">
-        <v>24.14903038973443</v>
+        <v>8.867484031449296</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.609481344395543</v>
+        <v>5.828367106078687</v>
       </c>
       <c r="F14">
-        <v>50.53405323375497</v>
+        <v>81.75557665170156</v>
       </c>
       <c r="G14">
-        <v>2.03000784978121</v>
+        <v>2.15240817563718</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.087400045324939</v>
+        <v>14.14756858769144</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.41095494025329</v>
       </c>
       <c r="L14">
-        <v>7.646310787390102</v>
+        <v>4.378941107578833</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.648824641615927</v>
       </c>
       <c r="N14">
-        <v>13.66782284555183</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.29002825263128</v>
+        <v>15.67839694300008</v>
       </c>
       <c r="C15">
-        <v>23.99167123750287</v>
+        <v>8.814517853914047</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.588485396474766</v>
+        <v>5.793916838655523</v>
       </c>
       <c r="F15">
-        <v>50.30263906703074</v>
+        <v>81.37892991402829</v>
       </c>
       <c r="G15">
-        <v>2.031944325673483</v>
+        <v>2.153800030840249</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.09516417361189</v>
+        <v>14.1015754635018</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.3518060758353</v>
       </c>
       <c r="L15">
-        <v>7.624026363604425</v>
+        <v>4.3584987523821</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.599587890582516</v>
       </c>
       <c r="N15">
-        <v>13.69122525450903</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.90761649064592</v>
+        <v>15.264768549161</v>
       </c>
       <c r="C16">
-        <v>23.08332143376673</v>
+        <v>8.507636209358331</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.469938030148893</v>
+        <v>5.594589335126814</v>
       </c>
       <c r="F16">
-        <v>48.98346682349944</v>
+        <v>79.20808754033204</v>
       </c>
       <c r="G16">
-        <v>2.04300195399058</v>
+        <v>2.161777289685577</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.14108520305593</v>
+        <v>13.83745718243832</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.01406304235478</v>
       </c>
       <c r="L16">
-        <v>7.497006124845895</v>
+        <v>4.241230021656335</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.418713110852925</v>
       </c>
       <c r="N16">
-        <v>13.82765814183065</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.05005357606002</v>
+        <v>15.01243073401091</v>
       </c>
       <c r="C17">
-        <v>22.51971994569869</v>
+        <v>8.316291978744806</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.398635370118376</v>
+        <v>5.470547007164971</v>
       </c>
       <c r="F17">
-        <v>48.1799823943695</v>
+        <v>77.8649860868596</v>
       </c>
       <c r="G17">
-        <v>2.049759449908342</v>
+        <v>2.166676262890016</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.1704560951622</v>
+        <v>13.67488288777557</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.8079324917321</v>
       </c>
       <c r="L17">
-        <v>7.419681615330945</v>
+        <v>4.169119346799815</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.435156983040183</v>
       </c>
       <c r="N17">
-        <v>13.91331547602408</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.55311771292679</v>
+        <v>14.86780827809987</v>
       </c>
       <c r="C18">
-        <v>22.19303628774828</v>
+        <v>8.205069244987405</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.358088191484803</v>
+        <v>5.398531293400367</v>
       </c>
       <c r="F18">
-        <v>47.71981749207593</v>
+        <v>77.08820822934301</v>
       </c>
       <c r="G18">
-        <v>2.05364007330051</v>
+        <v>2.169497514739407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.18776329546783</v>
+        <v>13.58115391256972</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.68975854277871</v>
       </c>
       <c r="L18">
-        <v>7.375423499902969</v>
+        <v>4.127557546697417</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.446181809574266</v>
       </c>
       <c r="N18">
-        <v>13.96326286198245</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.38421307756312</v>
+        <v>14.81893037600793</v>
       </c>
       <c r="C19">
-        <v>22.08197896077735</v>
+        <v>8.167207706286746</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.344434182348838</v>
+        <v>5.374030924373346</v>
       </c>
       <c r="F19">
-        <v>47.56434136259018</v>
+        <v>76.82446620058812</v>
       </c>
       <c r="G19">
-        <v>2.054953243393103</v>
+        <v>2.170453485559193</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.193691927865534</v>
+        <v>13.54937932588581</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.64981329844195</v>
       </c>
       <c r="L19">
-        <v>7.360475551627451</v>
+        <v>4.113468635931645</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.450176700333837</v>
       </c>
       <c r="N19">
-        <v>13.98028736673957</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.14172015711609</v>
+        <v>15.03923918957723</v>
       </c>
       <c r="C20">
-        <v>22.57997273738486</v>
+        <v>8.336780898515567</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.406176364487968</v>
+        <v>5.483820360628678</v>
       </c>
       <c r="F20">
-        <v>48.26530699481396</v>
+        <v>78.0084009203959</v>
       </c>
       <c r="G20">
-        <v>2.049040809406971</v>
+        <v>2.166154431982417</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.167286108210398</v>
+        <v>13.6922116113598</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.82983537090478</v>
       </c>
       <c r="L20">
-        <v>7.427890447439285</v>
+        <v>4.176804012377191</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.433242670489651</v>
       </c>
       <c r="N20">
-        <v>13.90412591506065</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.64417964492585</v>
+        <v>15.78562996077383</v>
       </c>
       <c r="C21">
-        <v>24.22437898159871</v>
+        <v>8.892824737978955</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.619583200626214</v>
+        <v>5.84485409053775</v>
       </c>
       <c r="F21">
-        <v>50.6451527691722</v>
+        <v>81.93597342733828</v>
       </c>
       <c r="G21">
-        <v>2.029078419490007</v>
+        <v>2.151740700992849</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.083703320005011</v>
+        <v>14.16961465245378</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.43934034154023</v>
       </c>
       <c r="L21">
-        <v>7.657009051861897</v>
+        <v>4.388742519343829</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.672398442946498</v>
       </c>
       <c r="N21">
-        <v>13.65664356712823</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.25140430716266</v>
+        <v>16.27818942200932</v>
       </c>
       <c r="C22">
-        <v>25.28073305533357</v>
+        <v>9.246596215318711</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.764527004181556</v>
+        <v>6.075348052423854</v>
       </c>
       <c r="F22">
-        <v>52.22177046213645</v>
+        <v>84.46714539404246</v>
       </c>
       <c r="G22">
-        <v>2.01589940890015</v>
+        <v>2.142316245657855</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.033387808291788</v>
+        <v>14.48012498425858</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.00510199314474</v>
       </c>
       <c r="L22">
-        <v>7.808774471134612</v>
+        <v>4.527010040123006</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.002690626069068</v>
       </c>
       <c r="N22">
-        <v>13.50189971347907</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.39593312009974</v>
+        <v>16.01484994097043</v>
       </c>
       <c r="C23">
-        <v>24.71840002313846</v>
+        <v>9.058624001041036</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.686594291392901</v>
+        <v>5.952802575608715</v>
       </c>
       <c r="F23">
-        <v>51.37813663351761</v>
+        <v>83.11934026643351</v>
       </c>
       <c r="G23">
-        <v>2.022949613322727</v>
+        <v>2.147348495056515</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.059813057761579</v>
+        <v>14.31451087806568</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.70319257748893</v>
       </c>
       <c r="L23">
-        <v>7.727582366493602</v>
+        <v>4.453209507178654</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.826916445456026</v>
       </c>
       <c r="N23">
-        <v>13.58379577781193</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.1002899256995</v>
+        <v>15.02711768600184</v>
       </c>
       <c r="C24">
-        <v>22.55274078237784</v>
+        <v>8.327521654619821</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.402765706367817</v>
+        <v>5.477821669797028</v>
       </c>
       <c r="F24">
-        <v>48.22672626762884</v>
+        <v>77.94357745658439</v>
       </c>
       <c r="G24">
-        <v>2.049365719525302</v>
+        <v>2.166390336514787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.168717952914013</v>
+        <v>13.68437811877604</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.81993204217203</v>
       </c>
       <c r="L24">
-        <v>7.424178622195587</v>
+        <v>4.173330105729491</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.434103255811694</v>
       </c>
       <c r="N24">
-        <v>13.90827833920056</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.54698427946153</v>
+        <v>13.98169291909161</v>
       </c>
       <c r="C25">
-        <v>20.11901554410516</v>
+        <v>7.49397936656332</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.113883396861517</v>
+        <v>5.007484177145587</v>
       </c>
       <c r="F25">
-        <v>44.90262294769222</v>
+        <v>72.19789462077306</v>
       </c>
       <c r="G25">
-        <v>2.077656105801338</v>
+        <v>2.187078845891334</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.301810249274436</v>
+        <v>12.99612717598702</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.96499556962422</v>
       </c>
       <c r="L25">
-        <v>7.10524428580316</v>
+        <v>3.867940727397729</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.540876867106834</v>
       </c>
       <c r="N25">
-        <v>14.28398212195219</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23040454450106</v>
+        <v>19.33650637266031</v>
       </c>
       <c r="C2">
-        <v>6.838117295988599</v>
+        <v>4.408983019100955</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.789118190549785</v>
+        <v>9.332530527201342</v>
       </c>
       <c r="F2">
-        <v>67.82340270775069</v>
+        <v>65.41654817454751</v>
       </c>
       <c r="G2">
-        <v>2.202600836984434</v>
+        <v>3.826983990749906</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.48032642520028</v>
+        <v>13.71773040068543</v>
       </c>
       <c r="K2">
-        <v>11.34912285412052</v>
+        <v>16.2391337300935</v>
       </c>
       <c r="L2">
-        <v>3.637747862774833</v>
+        <v>9.428076638948738</v>
       </c>
       <c r="M2">
-        <v>7.662428876225751</v>
+        <v>16.97206394233627</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.73437962420028</v>
+        <v>19.3573741040462</v>
       </c>
       <c r="C3">
-        <v>6.365877793178392</v>
+        <v>4.178465634580479</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.64826184001843</v>
+        <v>9.358939755907141</v>
       </c>
       <c r="F3">
-        <v>64.77137657863315</v>
+        <v>64.50928574972426</v>
       </c>
       <c r="G3">
-        <v>2.213369005622769</v>
+        <v>3.830557660038769</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.12466403462287</v>
+        <v>13.60354891776379</v>
       </c>
       <c r="K3">
-        <v>10.94135945475036</v>
+        <v>16.24324354202467</v>
       </c>
       <c r="L3">
-        <v>3.477438739532653</v>
+        <v>9.497999206220701</v>
       </c>
       <c r="M3">
-        <v>7.76812578453918</v>
+        <v>17.07228777481874</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43706677925204</v>
+        <v>19.37656023124551</v>
       </c>
       <c r="C4">
-        <v>6.061808856129455</v>
+        <v>4.029499198021233</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.565367093151911</v>
+        <v>9.377228553769044</v>
       </c>
       <c r="F4">
-        <v>62.85643169111261</v>
+        <v>63.94802761159888</v>
       </c>
       <c r="G4">
-        <v>2.220123255890443</v>
+        <v>3.832864079511856</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.90322423980784</v>
+        <v>13.53190880769038</v>
       </c>
       <c r="K4">
-        <v>10.69629128969224</v>
+        <v>16.25054958353237</v>
       </c>
       <c r="L4">
-        <v>3.410346033724843</v>
+        <v>9.543212465027326</v>
       </c>
       <c r="M4">
-        <v>7.843509616924867</v>
+        <v>17.13793353153811</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31786804143868</v>
+        <v>19.38597833338346</v>
       </c>
       <c r="C5">
-        <v>5.934294438865376</v>
+        <v>3.966955155171505</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.532502951584683</v>
+        <v>9.38520125658615</v>
       </c>
       <c r="F5">
-        <v>62.06623684375759</v>
+        <v>63.71842436778699</v>
       </c>
       <c r="G5">
-        <v>2.222914191758576</v>
+        <v>3.833832280737706</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.812218238464</v>
+        <v>13.50233630701626</v>
       </c>
       <c r="K5">
-        <v>10.59785600152547</v>
+        <v>16.25472863469352</v>
       </c>
       <c r="L5">
-        <v>3.450470068090349</v>
+        <v>9.56221258751677</v>
       </c>
       <c r="M5">
-        <v>7.876727374435577</v>
+        <v>17.1657185806406</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.2981976785394</v>
+        <v>19.38763870729723</v>
       </c>
       <c r="C6">
-        <v>5.912901601618394</v>
+        <v>3.956459655996208</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.527101589733745</v>
+        <v>9.386556471324143</v>
       </c>
       <c r="F6">
-        <v>61.93444751626485</v>
+        <v>63.68025036775087</v>
       </c>
       <c r="G6">
-        <v>2.223380025697412</v>
+        <v>3.833994763292113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.79706062003483</v>
+        <v>13.49740314710213</v>
       </c>
       <c r="K6">
-        <v>10.58160046425306</v>
+        <v>16.25549510754839</v>
       </c>
       <c r="L6">
-        <v>3.457192682175557</v>
+        <v>9.565402349159266</v>
       </c>
       <c r="M6">
-        <v>7.882390220813591</v>
+        <v>17.17039473755572</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43545110431339</v>
+        <v>19.37668077511477</v>
       </c>
       <c r="C7">
-        <v>6.060103812830408</v>
+        <v>4.028663110685356</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.564920149468302</v>
+        <v>9.377333973563386</v>
       </c>
       <c r="F7">
-        <v>62.84581397295516</v>
+        <v>63.94493446566381</v>
       </c>
       <c r="G7">
-        <v>2.220160736052664</v>
+        <v>3.832877022215549</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.90199999998436</v>
+        <v>13.5315115064984</v>
       </c>
       <c r="K7">
-        <v>10.69495782078559</v>
+        <v>16.25060107947319</v>
       </c>
       <c r="L7">
-        <v>3.410883119430057</v>
+        <v>9.543466375263344</v>
       </c>
       <c r="M7">
-        <v>7.843947662329207</v>
+        <v>17.13830406316345</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05794791221825</v>
+        <v>19.34237727322148</v>
       </c>
       <c r="C8">
-        <v>6.678182855446158</v>
+        <v>4.331057697619971</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.73981316898587</v>
+        <v>9.341205198754691</v>
       </c>
       <c r="F8">
-        <v>66.77981077940862</v>
+        <v>65.10469577611651</v>
       </c>
       <c r="G8">
-        <v>2.206285795560564</v>
+        <v>3.828192976965495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.35832837075789</v>
+        <v>13.67868264810732</v>
       </c>
       <c r="K8">
-        <v>11.20748199986455</v>
+        <v>16.23955788651893</v>
       </c>
       <c r="L8">
-        <v>3.582948479845676</v>
+        <v>9.45171375977371</v>
       </c>
       <c r="M8">
-        <v>7.696609886532256</v>
+        <v>17.00576905216099</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33112990941491</v>
+        <v>19.32576938470683</v>
       </c>
       <c r="C9">
-        <v>7.781089193163162</v>
+        <v>4.864138021041764</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.124602924711121</v>
+        <v>9.286874021962079</v>
       </c>
       <c r="F9">
-        <v>74.15570964703461</v>
+        <v>67.33837448171263</v>
       </c>
       <c r="G9">
-        <v>2.180074881078233</v>
+        <v>3.819892591920814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.22928380317203</v>
+        <v>13.95483956806828</v>
       </c>
       <c r="K9">
-        <v>12.25096756405</v>
+        <v>16.25585459204096</v>
       </c>
       <c r="L9">
-        <v>3.97149803513723</v>
+        <v>9.289795958502276</v>
       </c>
       <c r="M9">
-        <v>7.497744724635114</v>
+        <v>16.77842377052178</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.29363193704785</v>
+        <v>19.34451558542638</v>
       </c>
       <c r="C10">
-        <v>8.529314244370969</v>
+        <v>5.218288098301433</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.608654260805221</v>
+        <v>9.257112915186685</v>
       </c>
       <c r="F10">
-        <v>79.36077302030704</v>
+        <v>68.94510184633737</v>
       </c>
       <c r="G10">
-        <v>2.161218643330651</v>
+        <v>3.814326791688248</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.8559795253832</v>
+        <v>14.14977123769422</v>
       </c>
       <c r="K10">
-        <v>13.03763656935537</v>
+        <v>16.29092241935172</v>
       </c>
       <c r="L10">
-        <v>4.249448385694848</v>
+        <v>9.181693799982103</v>
       </c>
       <c r="M10">
-        <v>7.417054505328879</v>
+        <v>16.63118844913319</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.73699283662913</v>
+        <v>19.35975551996861</v>
       </c>
       <c r="C11">
-        <v>8.857367995764807</v>
+        <v>5.371125168952651</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.821786366064821</v>
+        <v>9.245796319971408</v>
       </c>
       <c r="F11">
-        <v>81.68359752073505</v>
+        <v>69.66661905827898</v>
       </c>
       <c r="G11">
-        <v>2.152674348930375</v>
+        <v>3.811908886029353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.13877525677457</v>
+        <v>14.23664416414451</v>
       </c>
       <c r="K11">
-        <v>13.39963908294652</v>
+        <v>16.31186423048198</v>
       </c>
       <c r="L11">
-        <v>4.375032196236969</v>
+        <v>9.134847940157179</v>
       </c>
       <c r="M11">
-        <v>7.639417099851581</v>
+        <v>16.56849606629667</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.90569218689292</v>
+        <v>19.36648914791748</v>
       </c>
       <c r="C12">
-        <v>8.979931399098115</v>
+        <v>5.427804264929991</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.901550758428317</v>
+        <v>9.241831810934897</v>
       </c>
       <c r="F12">
-        <v>82.5570285099961</v>
+        <v>69.93832943772978</v>
       </c>
       <c r="G12">
-        <v>2.14943857034093</v>
+        <v>3.811009566069229</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.24559905416717</v>
+        <v>14.26927479388019</v>
       </c>
       <c r="K12">
-        <v>13.57691162357479</v>
+        <v>16.32050814877449</v>
       </c>
       <c r="L12">
-        <v>4.422538575610701</v>
+        <v>9.117441829459942</v>
       </c>
       <c r="M12">
-        <v>7.75351763691318</v>
+        <v>16.54537183496704</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86932310848282</v>
+        <v>19.36499618233032</v>
       </c>
       <c r="C13">
-        <v>8.953607292961765</v>
+        <v>5.415650748462767</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.884412811110685</v>
+        <v>9.24267134904186</v>
       </c>
       <c r="F13">
-        <v>82.36918761279152</v>
+        <v>69.87988153776979</v>
       </c>
       <c r="G13">
-        <v>2.150135551553505</v>
+        <v>3.811202527953878</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.22260319306172</v>
+        <v>14.26225915741309</v>
       </c>
       <c r="K13">
-        <v>13.53468305883761</v>
+        <v>16.3186148525988</v>
       </c>
       <c r="L13">
-        <v>4.412308143472679</v>
+        <v>9.121175745621265</v>
       </c>
       <c r="M13">
-        <v>7.72898887378456</v>
+        <v>16.55032465798398</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75085539356698</v>
+        <v>19.3602902266504</v>
       </c>
       <c r="C14">
-        <v>8.867484031449296</v>
+        <v>5.375812219908281</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.828367106078687</v>
+        <v>9.245463719956373</v>
       </c>
       <c r="F14">
-        <v>81.75557665170156</v>
+        <v>69.68900405678384</v>
       </c>
       <c r="G14">
-        <v>2.15240817563718</v>
+        <v>3.811834572592676</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.14756858769144</v>
+        <v>14.2393340820758</v>
       </c>
       <c r="K14">
-        <v>13.41095494025329</v>
+        <v>16.31256109153636</v>
       </c>
       <c r="L14">
-        <v>4.378941107578833</v>
+        <v>9.133409256792367</v>
       </c>
       <c r="M14">
-        <v>7.648824641615927</v>
+        <v>16.56658127730266</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67839694300008</v>
+        <v>19.35753295481717</v>
       </c>
       <c r="C15">
-        <v>8.814517853914047</v>
+        <v>5.351253886964296</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.793916838655523</v>
+        <v>9.247215948853652</v>
       </c>
       <c r="F15">
-        <v>81.37892991402829</v>
+        <v>69.57188439588658</v>
       </c>
       <c r="G15">
-        <v>2.153800030840249</v>
+        <v>3.812223836298977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.1015754635018</v>
+        <v>14.22525692837018</v>
       </c>
       <c r="K15">
-        <v>13.3518060758353</v>
+        <v>16.30894580834737</v>
       </c>
       <c r="L15">
-        <v>4.3584987523821</v>
+        <v>9.140946003999538</v>
       </c>
       <c r="M15">
-        <v>7.599587890582516</v>
+        <v>16.57661914254351</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.264768549161</v>
+        <v>19.34365448866038</v>
       </c>
       <c r="C16">
-        <v>8.507636209358331</v>
+        <v>5.208132723016313</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.594589335126814</v>
+        <v>9.257897307311316</v>
       </c>
       <c r="F16">
-        <v>79.20808754033204</v>
+        <v>68.89774604497585</v>
       </c>
       <c r="G16">
-        <v>2.161777289685577</v>
+        <v>3.81448709256671</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.83745718243832</v>
+        <v>14.14405701063129</v>
       </c>
       <c r="K16">
-        <v>13.01406304235478</v>
+        <v>16.28965391937374</v>
       </c>
       <c r="L16">
-        <v>4.241230021656335</v>
+        <v>9.184802033685258</v>
       </c>
       <c r="M16">
-        <v>7.418713110852925</v>
+        <v>16.6353717587154</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01243073401091</v>
+        <v>19.33685814910445</v>
       </c>
       <c r="C17">
-        <v>8.316291978744806</v>
+        <v>5.118208451801549</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.470547007164971</v>
+        <v>9.265020028298117</v>
       </c>
       <c r="F17">
-        <v>77.8649860868596</v>
+        <v>68.48166166372506</v>
       </c>
       <c r="G17">
-        <v>2.166676262890016</v>
+        <v>3.815904651294297</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.67488288777557</v>
+        <v>14.09377677283964</v>
       </c>
       <c r="K17">
-        <v>12.8079324917321</v>
+        <v>16.27909445345112</v>
       </c>
       <c r="L17">
-        <v>4.169119346799815</v>
+        <v>9.21230192784383</v>
       </c>
       <c r="M17">
-        <v>7.435156983040183</v>
+        <v>16.67251204481573</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86780827809987</v>
+        <v>19.33358108477447</v>
       </c>
       <c r="C18">
-        <v>8.205069244987405</v>
+        <v>5.065708523736382</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.398531293400367</v>
+        <v>9.269325888251217</v>
       </c>
       <c r="F18">
-        <v>77.08820822934301</v>
+        <v>68.24146636402465</v>
       </c>
       <c r="G18">
-        <v>2.169497514739407</v>
+        <v>3.816730730527688</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.58115391256972</v>
+        <v>14.06468766976589</v>
       </c>
       <c r="K18">
-        <v>12.68975854277871</v>
+        <v>16.2734908214837</v>
       </c>
       <c r="L18">
-        <v>4.127557546697417</v>
+        <v>9.228338583903763</v>
       </c>
       <c r="M18">
-        <v>7.446181809574266</v>
+        <v>16.69427755714581</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.81893037600793</v>
+        <v>19.33258013671988</v>
       </c>
       <c r="C19">
-        <v>8.167207706286746</v>
+        <v>5.047799637879011</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.374030924373346</v>
+        <v>9.270819642500081</v>
       </c>
       <c r="F19">
-        <v>76.82446620058812</v>
+        <v>68.15999518265549</v>
       </c>
       <c r="G19">
-        <v>2.170453485559193</v>
+        <v>3.817012274056618</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.54937932588581</v>
+        <v>14.05480974930772</v>
       </c>
       <c r="K19">
-        <v>12.64981329844195</v>
+        <v>16.27167433261452</v>
       </c>
       <c r="L19">
-        <v>4.113468635931645</v>
+        <v>9.233806062102829</v>
       </c>
       <c r="M19">
-        <v>7.450176700333837</v>
+        <v>16.70171627956365</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03923918957723</v>
+        <v>19.3375162359365</v>
       </c>
       <c r="C20">
-        <v>8.336780898515567</v>
+        <v>5.127861616310996</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.483820360628678</v>
+        <v>9.264240155777083</v>
       </c>
       <c r="F20">
-        <v>78.0084009203959</v>
+        <v>68.52604626275016</v>
       </c>
       <c r="G20">
-        <v>2.166154431982417</v>
+        <v>3.815752639283223</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.6922116113598</v>
+        <v>14.09914675710533</v>
       </c>
       <c r="K20">
-        <v>12.82983537090478</v>
+        <v>16.28016991896389</v>
       </c>
       <c r="L20">
-        <v>4.176804012377191</v>
+        <v>9.209351818029431</v>
       </c>
       <c r="M20">
-        <v>7.433242670489651</v>
+        <v>16.66851664970341</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.78562996077383</v>
+        <v>19.36164638164907</v>
       </c>
       <c r="C21">
-        <v>8.892824737978955</v>
+        <v>5.387546300474619</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.84485409053775</v>
+        <v>9.244634815184563</v>
       </c>
       <c r="F21">
-        <v>81.93597342733828</v>
+        <v>69.74511171375514</v>
       </c>
       <c r="G21">
-        <v>2.151740700992849</v>
+        <v>3.811648484534819</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.16961465245378</v>
+        <v>14.24607501448837</v>
       </c>
       <c r="K21">
-        <v>13.43934034154023</v>
+        <v>16.31431989211948</v>
       </c>
       <c r="L21">
-        <v>4.388742519343829</v>
+        <v>9.1298069430848</v>
       </c>
       <c r="M21">
-        <v>7.672398442946498</v>
+        <v>16.56178959745835</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.27818942200932</v>
+        <v>19.38302557506718</v>
       </c>
       <c r="C22">
-        <v>9.246596215318711</v>
+        <v>5.550286100500881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.075348052423854</v>
+        <v>9.233692253776923</v>
       </c>
       <c r="F22">
-        <v>84.46714539404246</v>
+        <v>70.53295411558784</v>
       </c>
       <c r="G22">
-        <v>2.142316245657855</v>
+        <v>3.809061075006422</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>14.48012498425858</v>
+        <v>14.34054594726206</v>
       </c>
       <c r="K22">
-        <v>14.00510199314474</v>
+        <v>16.3407965778882</v>
       </c>
       <c r="L22">
-        <v>4.527010040123006</v>
+        <v>9.079762305621436</v>
       </c>
       <c r="M22">
-        <v>8.002690626069068</v>
+        <v>16.49562782666005</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01484994097043</v>
+        <v>19.37110304555981</v>
       </c>
       <c r="C23">
-        <v>9.058624001041036</v>
+        <v>5.464069497961826</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.952802575608715</v>
+        <v>9.239360918981758</v>
       </c>
       <c r="F23">
-        <v>83.11934026643351</v>
+        <v>70.11333308220399</v>
       </c>
       <c r="G23">
-        <v>2.147348495056515</v>
+        <v>3.810433376169184</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.31451087806568</v>
+        <v>14.29026963748117</v>
       </c>
       <c r="K23">
-        <v>13.70319257748893</v>
+        <v>16.32628649918225</v>
       </c>
       <c r="L23">
-        <v>4.453209507178654</v>
+        <v>9.106294884164782</v>
       </c>
       <c r="M23">
-        <v>7.826916445456026</v>
+        <v>16.5306111437283</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.02711768600184</v>
+        <v>19.33721675153757</v>
       </c>
       <c r="C24">
-        <v>8.327521654619821</v>
+        <v>5.123499915825992</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.477821669797028</v>
+        <v>9.264592079269244</v>
       </c>
       <c r="F24">
-        <v>77.94357745658439</v>
+        <v>68.50598303441818</v>
       </c>
       <c r="G24">
-        <v>2.166390336514787</v>
+        <v>3.815821329311035</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.68437811877604</v>
+        <v>14.09671955465779</v>
       </c>
       <c r="K24">
-        <v>12.81993204217203</v>
+        <v>16.27968224560843</v>
       </c>
       <c r="L24">
-        <v>4.173330105729491</v>
+        <v>9.21068485668426</v>
       </c>
       <c r="M24">
-        <v>7.434103255811694</v>
+        <v>16.67032168111406</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.98169291909161</v>
+        <v>19.32482790083174</v>
       </c>
       <c r="C25">
-        <v>7.49397936656332</v>
+        <v>4.726456494730991</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.007484177145587</v>
+        <v>9.299794540713505</v>
       </c>
       <c r="F25">
-        <v>72.19789462077306</v>
+        <v>66.73945639262186</v>
       </c>
       <c r="G25">
-        <v>2.187078845891334</v>
+        <v>3.822044047863149</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.99612717598702</v>
+        <v>13.88150291403199</v>
       </c>
       <c r="K25">
-        <v>11.96499556962422</v>
+        <v>16.24738387718471</v>
       </c>
       <c r="L25">
-        <v>3.867940727397729</v>
+        <v>9.331683514502627</v>
       </c>
       <c r="M25">
-        <v>7.540876867106834</v>
+        <v>16.83644697949977</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.33650637266031</v>
+        <v>13.23040454450115</v>
       </c>
       <c r="C2">
-        <v>4.408983019100955</v>
+        <v>6.838117295988664</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.332530527201342</v>
+        <v>4.789118190549489</v>
       </c>
       <c r="F2">
-        <v>65.41654817454751</v>
+        <v>67.82340270775023</v>
       </c>
       <c r="G2">
-        <v>3.826983990749906</v>
+        <v>2.202600836984188</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.71773040068543</v>
+        <v>12.4803264252002</v>
       </c>
       <c r="K2">
-        <v>16.2391337300935</v>
+        <v>11.34912285412054</v>
       </c>
       <c r="L2">
-        <v>9.428076638948738</v>
+        <v>3.637747862774964</v>
       </c>
       <c r="M2">
-        <v>16.97206394233627</v>
+        <v>7.662428876225754</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.3573741040462</v>
+        <v>12.73437962420025</v>
       </c>
       <c r="C3">
-        <v>4.178465634580479</v>
+        <v>6.36587779317823</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.358939755907141</v>
+        <v>4.648261840018474</v>
       </c>
       <c r="F3">
-        <v>64.50928574972426</v>
+        <v>64.77137657863278</v>
       </c>
       <c r="G3">
-        <v>3.830557660038769</v>
+        <v>2.213369005622518</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.60354891776379</v>
+        <v>12.12466403462287</v>
       </c>
       <c r="K3">
-        <v>16.24324354202467</v>
+        <v>10.94135945475035</v>
       </c>
       <c r="L3">
-        <v>9.497999206220701</v>
+        <v>3.477438739532495</v>
       </c>
       <c r="M3">
-        <v>17.07228777481874</v>
+        <v>7.768125784539251</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.37656023124551</v>
+        <v>12.43706677925195</v>
       </c>
       <c r="C4">
-        <v>4.029499198021233</v>
+        <v>6.061808856129179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.377228553769044</v>
+        <v>4.56536709315186</v>
       </c>
       <c r="F4">
-        <v>63.94802761159888</v>
+        <v>62.85643169111317</v>
       </c>
       <c r="G4">
-        <v>3.832864079511856</v>
+        <v>2.22012325589005</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.53190880769038</v>
+        <v>11.90322423980802</v>
       </c>
       <c r="K4">
-        <v>16.25054958353237</v>
+        <v>10.69629128969225</v>
       </c>
       <c r="L4">
-        <v>9.543212465027326</v>
+        <v>3.410346033724881</v>
       </c>
       <c r="M4">
-        <v>17.13793353153811</v>
+        <v>7.843509616924759</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.38597833338346</v>
+        <v>12.31786804143879</v>
       </c>
       <c r="C5">
-        <v>3.966955155171505</v>
+        <v>5.934294438865365</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.38520125658615</v>
+        <v>4.53250295158451</v>
       </c>
       <c r="F5">
-        <v>63.71842436778699</v>
+        <v>62.06623684375726</v>
       </c>
       <c r="G5">
-        <v>3.833832280737706</v>
+        <v>2.222914191758587</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.50233630701626</v>
+        <v>11.81221823846392</v>
       </c>
       <c r="K5">
-        <v>16.25472863469352</v>
+        <v>10.59785600152551</v>
       </c>
       <c r="L5">
-        <v>9.56221258751677</v>
+        <v>3.450470068090246</v>
       </c>
       <c r="M5">
-        <v>17.1657185806406</v>
+        <v>7.876727374435608</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.38763870729723</v>
+        <v>12.29819767853934</v>
       </c>
       <c r="C6">
-        <v>3.956459655996208</v>
+        <v>5.912901601618523</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.386556471324143</v>
+        <v>4.527101589733848</v>
       </c>
       <c r="F6">
-        <v>63.68025036775087</v>
+        <v>61.93444751626516</v>
       </c>
       <c r="G6">
-        <v>3.833994763292113</v>
+        <v>2.223380025697419</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.49740314710213</v>
+        <v>11.79706062003484</v>
       </c>
       <c r="K6">
-        <v>16.25549510754839</v>
+        <v>10.58160046425302</v>
       </c>
       <c r="L6">
-        <v>9.565402349159266</v>
+        <v>3.457192682175627</v>
       </c>
       <c r="M6">
-        <v>17.17039473755572</v>
+        <v>7.882390220813543</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.37668077511477</v>
+        <v>12.43545110431355</v>
       </c>
       <c r="C7">
-        <v>4.028663110685356</v>
+        <v>6.060103812830407</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.377333973563386</v>
+        <v>4.564920149468331</v>
       </c>
       <c r="F7">
-        <v>63.94493446566381</v>
+        <v>62.84581397295463</v>
       </c>
       <c r="G7">
-        <v>3.832877022215549</v>
+        <v>2.220160736052661</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.5315115064984</v>
+        <v>11.90199999998428</v>
       </c>
       <c r="K7">
-        <v>16.25060107947319</v>
+        <v>10.69495782078568</v>
       </c>
       <c r="L7">
-        <v>9.543466375263344</v>
+        <v>3.410883119430019</v>
       </c>
       <c r="M7">
-        <v>17.13830406316345</v>
+        <v>7.84394766232938</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.34237727322148</v>
+        <v>13.05794791221827</v>
       </c>
       <c r="C8">
-        <v>4.331057697619971</v>
+        <v>6.678182855446306</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.341205198754691</v>
+        <v>4.739813168985774</v>
       </c>
       <c r="F8">
-        <v>65.10469577611651</v>
+        <v>66.77981077940819</v>
       </c>
       <c r="G8">
-        <v>3.828192976965495</v>
+        <v>2.206285795560548</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.67868264810732</v>
+        <v>12.35832837075778</v>
       </c>
       <c r="K8">
-        <v>16.23955788651893</v>
+        <v>11.20748199986453</v>
       </c>
       <c r="L8">
-        <v>9.45171375977371</v>
+        <v>3.582948479845681</v>
       </c>
       <c r="M8">
-        <v>17.00576905216099</v>
+        <v>7.696609886532226</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.32576938470683</v>
+        <v>14.33112990941488</v>
       </c>
       <c r="C9">
-        <v>4.864138021041764</v>
+        <v>7.781089193163305</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.286874021962079</v>
+        <v>5.124602924711101</v>
       </c>
       <c r="F9">
-        <v>67.33837448171263</v>
+        <v>74.15570964703431</v>
       </c>
       <c r="G9">
-        <v>3.819892591920814</v>
+        <v>2.180074881078108</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.95483956806828</v>
+        <v>13.22928380317189</v>
       </c>
       <c r="K9">
-        <v>16.25585459204096</v>
+        <v>12.25096756404998</v>
       </c>
       <c r="L9">
-        <v>9.289795958502276</v>
+        <v>3.971498035137375</v>
       </c>
       <c r="M9">
-        <v>16.77842377052178</v>
+        <v>7.497744724635055</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.34451558542638</v>
+        <v>15.29363193704784</v>
       </c>
       <c r="C10">
-        <v>5.218288098301433</v>
+        <v>8.52931424437071</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.257112915186685</v>
+        <v>5.608654260805206</v>
       </c>
       <c r="F10">
-        <v>68.94510184633737</v>
+        <v>79.36077302030698</v>
       </c>
       <c r="G10">
-        <v>3.814326791688248</v>
+        <v>2.161218643330518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.14977123769422</v>
+        <v>13.85597952538318</v>
       </c>
       <c r="K10">
-        <v>16.29092241935172</v>
+        <v>13.03763656935536</v>
       </c>
       <c r="L10">
-        <v>9.181693799982103</v>
+        <v>4.249448385694711</v>
       </c>
       <c r="M10">
-        <v>16.63118844913319</v>
+        <v>7.41705450532885</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.35975551996861</v>
+        <v>15.73699283662917</v>
       </c>
       <c r="C11">
-        <v>5.371125168952651</v>
+        <v>8.857367995764779</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.245796319971408</v>
+        <v>5.821786366064793</v>
       </c>
       <c r="F11">
-        <v>69.66661905827898</v>
+        <v>81.68359752073488</v>
       </c>
       <c r="G11">
-        <v>3.811908886029353</v>
+        <v>2.152674348930616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.23664416414451</v>
+        <v>14.1387752567745</v>
       </c>
       <c r="K11">
-        <v>16.31186423048198</v>
+        <v>13.39963908294656</v>
       </c>
       <c r="L11">
-        <v>9.134847940157179</v>
+        <v>4.375032196236904</v>
       </c>
       <c r="M11">
-        <v>16.56849606629667</v>
+        <v>7.639417099851549</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.36648914791748</v>
+        <v>15.90569218689289</v>
       </c>
       <c r="C12">
-        <v>5.427804264929991</v>
+        <v>8.979931399098218</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.241831810934897</v>
+        <v>5.901550758428414</v>
       </c>
       <c r="F12">
-        <v>69.93832943772978</v>
+        <v>82.55702850999637</v>
       </c>
       <c r="G12">
-        <v>3.811009566069229</v>
+        <v>2.149438570341073</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.26927479388019</v>
+        <v>14.24559905416723</v>
       </c>
       <c r="K12">
-        <v>16.32050814877449</v>
+        <v>13.57691162357482</v>
       </c>
       <c r="L12">
-        <v>9.117441829459942</v>
+        <v>4.422538575610777</v>
       </c>
       <c r="M12">
-        <v>16.54537183496704</v>
+        <v>7.753517636913212</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.36499618233032</v>
+        <v>15.86932310848283</v>
       </c>
       <c r="C13">
-        <v>5.415650748462767</v>
+        <v>8.953607292961683</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.24267134904186</v>
+        <v>5.884412811110651</v>
       </c>
       <c r="F13">
-        <v>69.87988153776979</v>
+        <v>82.36918761279159</v>
       </c>
       <c r="G13">
-        <v>3.811202527953878</v>
+        <v>2.150135551553249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.26225915741309</v>
+        <v>14.22260319306176</v>
       </c>
       <c r="K13">
-        <v>16.3186148525988</v>
+        <v>13.53468305883766</v>
       </c>
       <c r="L13">
-        <v>9.121175745621265</v>
+        <v>4.412308143472533</v>
       </c>
       <c r="M13">
-        <v>16.55032465798398</v>
+        <v>7.72898887378456</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.3602902266504</v>
+        <v>15.75085539356703</v>
       </c>
       <c r="C14">
-        <v>5.375812219908281</v>
+        <v>8.867484031448832</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.245463719956373</v>
+        <v>5.828367106078532</v>
       </c>
       <c r="F14">
-        <v>69.68900405678384</v>
+        <v>81.75557665170068</v>
       </c>
       <c r="G14">
-        <v>3.811834572592676</v>
+        <v>2.152408175637175</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.2393340820758</v>
+        <v>14.14756858769123</v>
       </c>
       <c r="K14">
-        <v>16.31256109153636</v>
+        <v>13.41095494025329</v>
       </c>
       <c r="L14">
-        <v>9.133409256792367</v>
+        <v>4.378941107578715</v>
       </c>
       <c r="M14">
-        <v>16.56658127730266</v>
+        <v>7.648824641615969</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.35753295481717</v>
+        <v>15.67839694300006</v>
       </c>
       <c r="C15">
-        <v>5.351253886964296</v>
+        <v>8.814517853914374</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.247215948853652</v>
+        <v>5.793916838655634</v>
       </c>
       <c r="F15">
-        <v>69.57188439588658</v>
+        <v>81.37892991402857</v>
       </c>
       <c r="G15">
-        <v>3.812223836298977</v>
+        <v>2.153800030840516</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.22525692837018</v>
+        <v>14.10157546350184</v>
       </c>
       <c r="K15">
-        <v>16.30894580834737</v>
+        <v>13.35180607583533</v>
       </c>
       <c r="L15">
-        <v>9.140946003999538</v>
+        <v>4.358498752382291</v>
       </c>
       <c r="M15">
-        <v>16.57661914254351</v>
+        <v>7.599587890582576</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.34365448866038</v>
+        <v>15.26476854916097</v>
       </c>
       <c r="C16">
-        <v>5.208132723016313</v>
+        <v>8.507636209358562</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.257897307311316</v>
+        <v>5.594589335126982</v>
       </c>
       <c r="F16">
-        <v>68.89774604497585</v>
+        <v>79.20808754033288</v>
       </c>
       <c r="G16">
-        <v>3.81448709256671</v>
+        <v>2.161777289685577</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.14405701063129</v>
+        <v>13.83745718243835</v>
       </c>
       <c r="K16">
-        <v>16.28965391937374</v>
+        <v>13.01406304235476</v>
       </c>
       <c r="L16">
-        <v>9.184802033685258</v>
+        <v>4.24123002165654</v>
       </c>
       <c r="M16">
-        <v>16.6353717587154</v>
+        <v>7.418713110852755</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.33685814910445</v>
+        <v>15.01243073401091</v>
       </c>
       <c r="C17">
-        <v>5.118208451801549</v>
+        <v>8.316291978744687</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.265020028298117</v>
+        <v>5.470547007164893</v>
       </c>
       <c r="F17">
-        <v>68.48166166372506</v>
+        <v>77.8649860868595</v>
       </c>
       <c r="G17">
-        <v>3.815904651294297</v>
+        <v>2.166676262889768</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>14.09377677283964</v>
+        <v>13.67488288777557</v>
       </c>
       <c r="K17">
-        <v>16.27909445345112</v>
+        <v>12.80793249173211</v>
       </c>
       <c r="L17">
-        <v>9.21230192784383</v>
+        <v>4.16911934679981</v>
       </c>
       <c r="M17">
-        <v>16.67251204481573</v>
+        <v>7.435156983040225</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.33358108477447</v>
+        <v>14.8678082780999</v>
       </c>
       <c r="C18">
-        <v>5.065708523736382</v>
+        <v>8.205069244987499</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.269325888251217</v>
+        <v>5.398531293400409</v>
       </c>
       <c r="F18">
-        <v>68.24146636402465</v>
+        <v>77.08820822934332</v>
       </c>
       <c r="G18">
-        <v>3.816730730527688</v>
+        <v>2.169497514739407</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.06468766976589</v>
+        <v>13.58115391256985</v>
       </c>
       <c r="K18">
-        <v>16.2734908214837</v>
+        <v>12.68975854277872</v>
       </c>
       <c r="L18">
-        <v>9.228338583903763</v>
+        <v>4.127557546697526</v>
       </c>
       <c r="M18">
-        <v>16.69427755714581</v>
+        <v>7.44618180957425</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.33258013671988</v>
+        <v>14.81893037600801</v>
       </c>
       <c r="C19">
-        <v>5.047799637879011</v>
+        <v>8.167207706286703</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.270819642500081</v>
+        <v>5.374030924373214</v>
       </c>
       <c r="F19">
-        <v>68.15999518265549</v>
+        <v>76.82446620058727</v>
       </c>
       <c r="G19">
-        <v>3.817012274056618</v>
+        <v>2.170453485559303</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.05480974930772</v>
+        <v>13.54937932588568</v>
       </c>
       <c r="K19">
-        <v>16.27167433261452</v>
+        <v>12.64981329844199</v>
       </c>
       <c r="L19">
-        <v>9.233806062102829</v>
+        <v>4.113468635931575</v>
       </c>
       <c r="M19">
-        <v>16.70171627956365</v>
+        <v>7.450176700334048</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.3375162359365</v>
+        <v>15.03923918957727</v>
       </c>
       <c r="C20">
-        <v>5.127861616310996</v>
+        <v>8.336780898515661</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.264240155777083</v>
+        <v>5.483820360628552</v>
       </c>
       <c r="F20">
-        <v>68.52604626275016</v>
+        <v>78.00840092039559</v>
       </c>
       <c r="G20">
-        <v>3.815752639283223</v>
+        <v>2.166154431982583</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14.09914675710533</v>
+        <v>13.69221161135974</v>
       </c>
       <c r="K20">
-        <v>16.28016991896389</v>
+        <v>12.82983537090477</v>
       </c>
       <c r="L20">
-        <v>9.209351818029431</v>
+        <v>4.176804012377088</v>
       </c>
       <c r="M20">
-        <v>16.66851664970341</v>
+        <v>7.433242670489701</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.36164638164907</v>
+        <v>15.78562996077385</v>
       </c>
       <c r="C21">
-        <v>5.387546300474619</v>
+        <v>8.892824737979078</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.244634815184563</v>
+        <v>5.844854090537648</v>
       </c>
       <c r="F21">
-        <v>69.74511171375514</v>
+        <v>81.93597342733786</v>
       </c>
       <c r="G21">
-        <v>3.811648484534819</v>
+        <v>2.151740700992727</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.24607501448837</v>
+        <v>14.16961465245377</v>
       </c>
       <c r="K21">
-        <v>16.31431989211948</v>
+        <v>13.43934034154024</v>
       </c>
       <c r="L21">
-        <v>9.1298069430848</v>
+        <v>4.388742519343811</v>
       </c>
       <c r="M21">
-        <v>16.56178959745835</v>
+        <v>7.672398442946488</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.38302557506718</v>
+        <v>16.27818942200928</v>
       </c>
       <c r="C22">
-        <v>5.550286100500881</v>
+        <v>9.246596215318759</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.233692253776923</v>
+        <v>6.075348052423888</v>
       </c>
       <c r="F22">
-        <v>70.53295411558784</v>
+        <v>84.46714539404238</v>
       </c>
       <c r="G22">
-        <v>3.809061075006422</v>
+        <v>2.142316245657707</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>14.34054594726206</v>
+        <v>14.48012498425859</v>
       </c>
       <c r="K22">
-        <v>16.3407965778882</v>
+        <v>14.00510199314474</v>
       </c>
       <c r="L22">
-        <v>9.079762305621436</v>
+        <v>4.527010040122988</v>
       </c>
       <c r="M22">
-        <v>16.49562782666005</v>
+        <v>8.002690626069024</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.37110304555981</v>
+        <v>16.01484994097048</v>
       </c>
       <c r="C23">
-        <v>5.464069497961826</v>
+        <v>9.058624001040982</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.239360918981758</v>
+        <v>5.952802575608736</v>
       </c>
       <c r="F23">
-        <v>70.11333308220399</v>
+        <v>83.11934026643372</v>
       </c>
       <c r="G23">
-        <v>3.810433376169184</v>
+        <v>2.147348495056515</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.29026963748117</v>
+        <v>14.31451087806577</v>
       </c>
       <c r="K23">
-        <v>16.32628649918225</v>
+        <v>13.70319257748895</v>
       </c>
       <c r="L23">
-        <v>9.106294884164782</v>
+        <v>4.4532095071786</v>
       </c>
       <c r="M23">
-        <v>16.5306111437283</v>
+        <v>7.826916445456016</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.33721675153757</v>
+        <v>15.02711768600181</v>
       </c>
       <c r="C24">
-        <v>5.123499915825992</v>
+        <v>8.327521654619849</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.264592079269244</v>
+        <v>5.477821669796892</v>
       </c>
       <c r="F24">
-        <v>68.50598303441818</v>
+        <v>77.94357745658394</v>
       </c>
       <c r="G24">
-        <v>3.815821329311035</v>
+        <v>2.166390336514935</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14.09671955465779</v>
+        <v>13.68437811877594</v>
       </c>
       <c r="K24">
-        <v>16.27968224560843</v>
+        <v>12.81993204217203</v>
       </c>
       <c r="L24">
-        <v>9.21068485668426</v>
+        <v>4.173330105729351</v>
       </c>
       <c r="M24">
-        <v>16.67032168111406</v>
+        <v>7.434103255811761</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.32482790083174</v>
+        <v>13.98169291909157</v>
       </c>
       <c r="C25">
-        <v>4.726456494730991</v>
+        <v>7.493979366563193</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.299794540713505</v>
+        <v>5.007484177145428</v>
       </c>
       <c r="F25">
-        <v>66.73945639262186</v>
+        <v>72.19789462077355</v>
       </c>
       <c r="G25">
-        <v>3.822044047863149</v>
+        <v>2.187078845890945</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.88150291403199</v>
+        <v>12.99612717598702</v>
       </c>
       <c r="K25">
-        <v>16.24738387718471</v>
+        <v>11.96499556962424</v>
       </c>
       <c r="L25">
-        <v>9.331683514502627</v>
+        <v>3.867940727397826</v>
       </c>
       <c r="M25">
-        <v>16.83644697949977</v>
+        <v>7.540876867106743</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23040454450115</v>
+        <v>22.48419244024626</v>
       </c>
       <c r="C2">
-        <v>6.838117295988664</v>
+        <v>13.70821002098385</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.789118190549489</v>
+        <v>8.997837449674707</v>
       </c>
       <c r="F2">
-        <v>67.82340270775023</v>
+        <v>30.44628131934066</v>
       </c>
       <c r="G2">
-        <v>2.202600836984188</v>
+        <v>34.85977858737962</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.047472544923967</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.631109269805648</v>
       </c>
       <c r="J2">
-        <v>12.4803264252002</v>
+        <v>11.29676183159702</v>
       </c>
       <c r="K2">
-        <v>11.34912285412054</v>
+        <v>17.58840478408701</v>
       </c>
       <c r="L2">
-        <v>3.637747862774964</v>
+        <v>5.364359126614276</v>
       </c>
       <c r="M2">
-        <v>7.662428876225754</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.994734012630937</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.44305308767213</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.73437962420025</v>
+        <v>21.04779205320445</v>
       </c>
       <c r="C3">
-        <v>6.36587779317823</v>
+        <v>12.90789999397299</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.648261840018474</v>
+        <v>8.808545756618679</v>
       </c>
       <c r="F3">
-        <v>64.77137657863278</v>
+        <v>29.46164938407226</v>
       </c>
       <c r="G3">
-        <v>2.213369005622518</v>
+        <v>33.50343498257515</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.30454135110099</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.835071350411456</v>
       </c>
       <c r="J3">
-        <v>12.12466403462287</v>
+        <v>11.13660506503839</v>
       </c>
       <c r="K3">
-        <v>10.94135945475035</v>
+        <v>17.42131109850612</v>
       </c>
       <c r="L3">
-        <v>3.477438739532495</v>
+        <v>5.322343897022607</v>
       </c>
       <c r="M3">
-        <v>7.768125784539251</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.655575905199004</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.58171622756762</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43706677925195</v>
+        <v>20.11357537515294</v>
       </c>
       <c r="C4">
-        <v>6.061808856129179</v>
+        <v>12.39349809238124</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.56536709315186</v>
+        <v>8.689566983331519</v>
       </c>
       <c r="F4">
-        <v>62.85643169111317</v>
+        <v>28.84844548195693</v>
       </c>
       <c r="G4">
-        <v>2.22012325589005</v>
+        <v>32.65617381082495</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.467929315252411</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.965378613769579</v>
       </c>
       <c r="J4">
-        <v>11.90322423980802</v>
+        <v>11.04083237194189</v>
       </c>
       <c r="K4">
-        <v>10.69629128969225</v>
+        <v>17.32243471623196</v>
       </c>
       <c r="L4">
-        <v>3.410346033724881</v>
+        <v>5.295262942005799</v>
       </c>
       <c r="M4">
-        <v>7.843509616924759</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.441587480112338</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.66862388421655</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31786804143879</v>
+        <v>19.71318965032859</v>
       </c>
       <c r="C5">
-        <v>5.934294438865365</v>
+        <v>12.18262031535132</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.53250295158451</v>
+        <v>8.640387290819032</v>
       </c>
       <c r="F5">
-        <v>62.06623684375726</v>
+        <v>28.58765509962188</v>
       </c>
       <c r="G5">
-        <v>2.222914191758587</v>
+        <v>32.2875082472561</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.536322709965915</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.02274860783769</v>
       </c>
       <c r="J5">
-        <v>11.81221823846392</v>
+        <v>10.99870753917724</v>
       </c>
       <c r="K5">
-        <v>10.59785600152551</v>
+        <v>17.27541487595651</v>
       </c>
       <c r="L5">
-        <v>3.450470068090246</v>
+        <v>5.283892602458431</v>
       </c>
       <c r="M5">
-        <v>7.876727374435608</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.354878414835621</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.7046523514542</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.29819767853934</v>
+        <v>19.63784810130899</v>
       </c>
       <c r="C6">
-        <v>5.912901601618523</v>
+        <v>12.15276179691786</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.527101589733848</v>
+        <v>8.632174817274977</v>
       </c>
       <c r="F6">
-        <v>61.93444751626516</v>
+        <v>28.53317984808455</v>
       </c>
       <c r="G6">
-        <v>2.223380025697419</v>
+        <v>32.20139178825397</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.548244362641165</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.036184855832753</v>
       </c>
       <c r="J6">
-        <v>11.79706062003484</v>
+        <v>10.9871635096286</v>
       </c>
       <c r="K6">
-        <v>10.58160046425302</v>
+        <v>17.25831185167018</v>
       </c>
       <c r="L6">
-        <v>3.457192682175627</v>
+        <v>5.281974481410553</v>
       </c>
       <c r="M6">
-        <v>7.882390220813543</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.342663479366562</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.71086902006872</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.43545110431355</v>
+        <v>20.08669482631867</v>
       </c>
       <c r="C7">
-        <v>6.060103812830407</v>
+        <v>12.40540511950343</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.564920149468331</v>
+        <v>8.688897766558691</v>
       </c>
       <c r="F7">
-        <v>62.84581397295463</v>
+        <v>28.81504283946273</v>
       </c>
       <c r="G7">
-        <v>2.220160736052661</v>
+        <v>32.58457262052251</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.470134119208262</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.976342226446678</v>
       </c>
       <c r="J7">
-        <v>11.90199999998428</v>
+        <v>11.027788450299</v>
       </c>
       <c r="K7">
-        <v>10.69495782078568</v>
+        <v>17.2963409627813</v>
       </c>
       <c r="L7">
-        <v>3.410883119430019</v>
+        <v>5.295102647826982</v>
       </c>
       <c r="M7">
-        <v>7.84394766232938</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.44652181998252</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.66975094926929</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05794791221827</v>
+        <v>21.97341205573018</v>
       </c>
       <c r="C8">
-        <v>6.678182855446306</v>
+        <v>13.45524091292997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.739813168985774</v>
+        <v>8.933146056212848</v>
       </c>
       <c r="F8">
-        <v>66.77981077940819</v>
+        <v>30.07076335031652</v>
       </c>
       <c r="G8">
-        <v>2.206285795560548</v>
+        <v>34.31124046709641</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.1365974054971</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.713720489487466</v>
       </c>
       <c r="J8">
-        <v>12.35832837075778</v>
+        <v>11.22481141571649</v>
       </c>
       <c r="K8">
-        <v>11.20748199986453</v>
+        <v>17.49676312401481</v>
       </c>
       <c r="L8">
-        <v>3.582948479845681</v>
+        <v>5.350218230011928</v>
       </c>
       <c r="M8">
-        <v>7.696609886532226</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.8867500429948</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.49170552894975</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33112990941488</v>
+        <v>25.29191146393526</v>
       </c>
       <c r="C9">
-        <v>7.781089193163305</v>
+        <v>15.30698786798507</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.124602924711101</v>
+        <v>9.390285630036248</v>
       </c>
       <c r="F9">
-        <v>74.15570964703431</v>
+        <v>32.50284886785575</v>
       </c>
       <c r="G9">
-        <v>2.180074881078108</v>
+        <v>37.6772754321635</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.596996740508206</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.726894280202179</v>
       </c>
       <c r="J9">
-        <v>13.22928380317189</v>
+        <v>11.65284073872025</v>
       </c>
       <c r="K9">
-        <v>12.25096756404998</v>
+        <v>17.96477469942845</v>
       </c>
       <c r="L9">
-        <v>3.971498035137375</v>
+        <v>5.448005165995823</v>
       </c>
       <c r="M9">
-        <v>7.497744724635055</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.690811392944786</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.15454477944626</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.29363193704784</v>
+        <v>27.4016524069262</v>
       </c>
       <c r="C10">
-        <v>8.52931424437071</v>
+        <v>16.57881754969655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.608654260805206</v>
+        <v>9.643714375514875</v>
       </c>
       <c r="F10">
-        <v>79.36077302030698</v>
+        <v>33.99519730279645</v>
       </c>
       <c r="G10">
-        <v>2.161218643330518</v>
+        <v>39.7809002173781</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.003090906837697</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.053054235189602</v>
       </c>
       <c r="J10">
-        <v>13.85597952538318</v>
+        <v>11.9235097990696</v>
       </c>
       <c r="K10">
-        <v>13.03763656935536</v>
+        <v>18.22184366939117</v>
       </c>
       <c r="L10">
-        <v>4.249448385694711</v>
+        <v>5.518043361464634</v>
       </c>
       <c r="M10">
-        <v>7.41705450532885</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.15119762890717</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.92347579398818</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.73699283662917</v>
+        <v>27.73134591722238</v>
       </c>
       <c r="C11">
-        <v>8.857367995764779</v>
+        <v>17.29543217255398</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.821786366064793</v>
+        <v>9.23073297284299</v>
       </c>
       <c r="F11">
-        <v>81.68359752073488</v>
+        <v>32.74196014671322</v>
       </c>
       <c r="G11">
-        <v>2.152674348930616</v>
+        <v>38.54522315979481</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.90726986574766</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.145770684006762</v>
       </c>
       <c r="J11">
-        <v>14.1387752567745</v>
+        <v>11.60085751527017</v>
       </c>
       <c r="K11">
-        <v>13.39963908294656</v>
+        <v>17.49218477065476</v>
       </c>
       <c r="L11">
-        <v>4.375032196236904</v>
+        <v>5.613966005465463</v>
       </c>
       <c r="M11">
-        <v>7.639417099851549</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.514530766540716</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.91136400292839</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.90569218689289</v>
+        <v>27.59429707317984</v>
       </c>
       <c r="C12">
-        <v>8.979931399098218</v>
+        <v>17.62402890237264</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.901550758428414</v>
+        <v>8.934425425366953</v>
       </c>
       <c r="F12">
-        <v>82.55702850999637</v>
+        <v>31.38776413082887</v>
       </c>
       <c r="G12">
-        <v>2.149438570341073</v>
+        <v>37.12040988363386</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.169897720769647</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.155627747876952</v>
       </c>
       <c r="J12">
-        <v>14.24559905416723</v>
+        <v>11.28206216508664</v>
       </c>
       <c r="K12">
-        <v>13.57691162357482</v>
+        <v>16.85302917543604</v>
       </c>
       <c r="L12">
-        <v>4.422538575610777</v>
+        <v>5.714849083666135</v>
       </c>
       <c r="M12">
-        <v>7.753517636913212</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.878295442301033</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.96862642737358</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86932310848283</v>
+        <v>27.05431253625352</v>
       </c>
       <c r="C13">
-        <v>8.953607292961683</v>
+        <v>17.70084736659787</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.884412811110651</v>
+        <v>8.714386512480042</v>
       </c>
       <c r="F13">
-        <v>82.36918761279159</v>
+        <v>29.80702125552065</v>
       </c>
       <c r="G13">
-        <v>2.150135551553249</v>
+        <v>35.33573851851795</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.489395768154045</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.105831035487848</v>
       </c>
       <c r="J13">
-        <v>14.22260319306176</v>
+        <v>10.92497803467705</v>
       </c>
       <c r="K13">
-        <v>13.53468305883766</v>
+        <v>16.20434563736916</v>
       </c>
       <c r="L13">
-        <v>4.412308143472533</v>
+        <v>5.822720569594227</v>
       </c>
       <c r="M13">
-        <v>7.72898887378456</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.20358487985353</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.07926341836985</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75085539356703</v>
+        <v>26.4811253983968</v>
       </c>
       <c r="C14">
-        <v>8.867484031448832</v>
+        <v>17.64565821981221</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.828367106078532</v>
+        <v>8.613271192274571</v>
       </c>
       <c r="F14">
-        <v>81.75557665170068</v>
+        <v>28.57981345138948</v>
       </c>
       <c r="G14">
-        <v>2.152408175637175</v>
+        <v>33.88794001755723</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.445337063474617</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.045147544185679</v>
       </c>
       <c r="J14">
-        <v>14.14756858769123</v>
+        <v>10.65382706421069</v>
       </c>
       <c r="K14">
-        <v>13.41095494025329</v>
+        <v>15.74188471750443</v>
       </c>
       <c r="L14">
-        <v>4.378941107578715</v>
+        <v>5.904566574735751</v>
       </c>
       <c r="M14">
-        <v>7.648824641615969</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.71594419053964</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.18187351484829</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67839694300006</v>
+        <v>26.24649219730334</v>
       </c>
       <c r="C15">
-        <v>8.814517853914374</v>
+        <v>17.58285588080549</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.793916838655634</v>
+        <v>8.589842833086488</v>
       </c>
       <c r="F15">
-        <v>81.37892991402857</v>
+        <v>28.22409436773742</v>
       </c>
       <c r="G15">
-        <v>2.153800030840516</v>
+        <v>33.43610226994858</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.685755819701448</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.018498676241082</v>
       </c>
       <c r="J15">
-        <v>14.10157546350184</v>
+        <v>10.57633244178137</v>
       </c>
       <c r="K15">
-        <v>13.35180607583533</v>
+        <v>15.62038086926336</v>
       </c>
       <c r="L15">
-        <v>4.358498752382291</v>
+        <v>5.92216642527274</v>
       </c>
       <c r="M15">
-        <v>7.599587890582576</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.589575200318997</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.21634657669331</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26476854916097</v>
+        <v>25.42421954230075</v>
       </c>
       <c r="C16">
-        <v>8.507636209358562</v>
+        <v>17.06007716363201</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.594589335126982</v>
+        <v>8.51504575648317</v>
       </c>
       <c r="F16">
-        <v>79.20808754033288</v>
+        <v>27.8286122751524</v>
       </c>
       <c r="G16">
-        <v>2.161777289685577</v>
+        <v>32.76131454546415</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.48068992992555</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.891726042801853</v>
       </c>
       <c r="J16">
-        <v>13.83745718243835</v>
+        <v>10.51707293588642</v>
       </c>
       <c r="K16">
-        <v>13.01406304235476</v>
+        <v>15.62143865383556</v>
       </c>
       <c r="L16">
-        <v>4.24123002165654</v>
+        <v>5.867936066578292</v>
       </c>
       <c r="M16">
-        <v>7.418713110852755</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.507992793851409</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.27968266525861</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01243073401091</v>
+        <v>25.10827019178477</v>
       </c>
       <c r="C17">
-        <v>8.316291978744687</v>
+        <v>16.68172823350411</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.470547007164893</v>
+        <v>8.500961619147985</v>
       </c>
       <c r="F17">
-        <v>77.8649860868595</v>
+        <v>28.19449741215316</v>
       </c>
       <c r="G17">
-        <v>2.166676262889768</v>
+        <v>33.04123727240055</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.741119003830955</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.826759008469946</v>
       </c>
       <c r="J17">
-        <v>13.67488288777557</v>
+        <v>10.61795426832919</v>
       </c>
       <c r="K17">
-        <v>12.80793249173211</v>
+        <v>15.86776178043345</v>
       </c>
       <c r="L17">
-        <v>4.16911934679981</v>
+        <v>5.780158864410591</v>
       </c>
       <c r="M17">
-        <v>7.435156983040225</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.708254202385604</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.2754151146104</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.8678082780999</v>
+        <v>25.2056215051504</v>
       </c>
       <c r="C18">
-        <v>8.205069244987499</v>
+        <v>16.38044827759181</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.398531293400409</v>
+        <v>8.601485444975761</v>
       </c>
       <c r="F18">
-        <v>77.08820822934332</v>
+        <v>29.27571514849647</v>
       </c>
       <c r="G18">
-        <v>2.169497514739407</v>
+        <v>34.21679230011077</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.474386132336647</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.805890432731228</v>
       </c>
       <c r="J18">
-        <v>13.58115391256985</v>
+        <v>10.87502593768377</v>
       </c>
       <c r="K18">
-        <v>12.68975854277872</v>
+        <v>16.37262891157236</v>
       </c>
       <c r="L18">
-        <v>4.127557546697526</v>
+        <v>5.666967677724206</v>
       </c>
       <c r="M18">
-        <v>7.44618180957425</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.182685341556018</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.21846465167499</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.81893037600801</v>
+        <v>25.59243771757053</v>
       </c>
       <c r="C19">
-        <v>8.167207706286703</v>
+        <v>16.19113527768642</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.374030924373214</v>
+        <v>8.87488505408945</v>
       </c>
       <c r="F19">
-        <v>76.82446620058727</v>
+        <v>30.79338801156796</v>
       </c>
       <c r="G19">
-        <v>2.170453485559303</v>
+        <v>35.89618336600238</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.951688044729187</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.83287875068471</v>
       </c>
       <c r="J19">
-        <v>13.54937932588568</v>
+        <v>11.21594103630834</v>
       </c>
       <c r="K19">
-        <v>12.64981329844199</v>
+        <v>17.01177559602725</v>
       </c>
       <c r="L19">
-        <v>4.113468635931575</v>
+        <v>5.567700500659337</v>
       </c>
       <c r="M19">
-        <v>7.450176700334048</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.863026794556944</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.14146484986611</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03923918957727</v>
+        <v>26.80879132044792</v>
       </c>
       <c r="C20">
-        <v>8.336780898515661</v>
+        <v>16.28971144088727</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.483820360628552</v>
+        <v>9.574615971580746</v>
       </c>
       <c r="F20">
-        <v>78.00840092039559</v>
+        <v>33.51704867228778</v>
       </c>
       <c r="G20">
-        <v>2.166154431982583</v>
+        <v>39.04853131622475</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.892764366760011</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.97697972409802</v>
       </c>
       <c r="J20">
-        <v>13.69221161135974</v>
+        <v>11.81333742119684</v>
       </c>
       <c r="K20">
-        <v>12.82983537090477</v>
+        <v>18.0737455859047</v>
       </c>
       <c r="L20">
-        <v>4.176804012377088</v>
+        <v>5.500955044126845</v>
       </c>
       <c r="M20">
-        <v>7.433242670489701</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.04388483823342</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.98870420218205</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.78562996077385</v>
+        <v>28.490126699676</v>
       </c>
       <c r="C21">
-        <v>8.892824737979078</v>
+        <v>17.19483477776112</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.844854090537648</v>
+        <v>9.872892469584672</v>
       </c>
       <c r="F21">
-        <v>81.93597342733786</v>
+        <v>34.99666284889298</v>
       </c>
       <c r="G21">
-        <v>2.151740700992727</v>
+        <v>41.04872915243977</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.214013794221072</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.231279656667197</v>
       </c>
       <c r="J21">
-        <v>14.16961465245377</v>
+        <v>12.10979789538917</v>
       </c>
       <c r="K21">
-        <v>13.43934034154024</v>
+        <v>18.44046443895449</v>
       </c>
       <c r="L21">
-        <v>4.388742519343811</v>
+        <v>5.546126031809963</v>
       </c>
       <c r="M21">
-        <v>7.672398442946488</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.53593203238552</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.8012993771222</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.27818942200928</v>
+        <v>29.54219124512256</v>
       </c>
       <c r="C22">
-        <v>9.246596215318759</v>
+        <v>17.76160134275277</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.075348052423888</v>
+        <v>10.02988867346252</v>
       </c>
       <c r="F22">
-        <v>84.46714539404238</v>
+        <v>35.86815949397025</v>
       </c>
       <c r="G22">
-        <v>2.142316245657707</v>
+        <v>42.27669970501553</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.415799545312323</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.388778923756473</v>
       </c>
       <c r="J22">
-        <v>14.48012498425859</v>
+        <v>12.29454450068824</v>
       </c>
       <c r="K22">
-        <v>14.00510199314474</v>
+        <v>18.66615542285546</v>
       </c>
       <c r="L22">
-        <v>4.527010040122988</v>
+        <v>5.576420518055622</v>
       </c>
       <c r="M22">
-        <v>8.002690626069024</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.79315311347123</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.68181767878845</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01484994097048</v>
+        <v>29.00368656737797</v>
       </c>
       <c r="C23">
-        <v>9.058624001040982</v>
+        <v>17.44793372817239</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.952802575608736</v>
+        <v>9.946276412496518</v>
       </c>
       <c r="F23">
-        <v>83.11934026643372</v>
+        <v>35.43356703303957</v>
       </c>
       <c r="G23">
-        <v>2.147348495056515</v>
+        <v>41.68626449674061</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.309669812057767</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.301744618445477</v>
       </c>
       <c r="J23">
-        <v>14.31451087806577</v>
+        <v>12.20908266109882</v>
       </c>
       <c r="K23">
-        <v>13.70319257748895</v>
+        <v>18.5732312253757</v>
       </c>
       <c r="L23">
-        <v>4.4532095071786</v>
+        <v>5.560071958822869</v>
       </c>
       <c r="M23">
-        <v>7.826916445456016</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.65064513248212</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.74342147119826</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.02711768600181</v>
+        <v>26.86470694389715</v>
       </c>
       <c r="C24">
-        <v>8.327521654619849</v>
+        <v>16.23990716962191</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.477821669796892</v>
+        <v>9.625191159235529</v>
       </c>
       <c r="F24">
-        <v>77.94357745658394</v>
+        <v>33.71336512962216</v>
       </c>
       <c r="G24">
-        <v>2.166390336514935</v>
+        <v>39.3110956706392</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.898255755098743</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.972252893598523</v>
       </c>
       <c r="J24">
-        <v>13.68437811877594</v>
+        <v>11.86892420689126</v>
       </c>
       <c r="K24">
-        <v>12.81993204217203</v>
+        <v>18.18617966517954</v>
       </c>
       <c r="L24">
-        <v>4.173330105729351</v>
+        <v>5.496390630751219</v>
       </c>
       <c r="M24">
-        <v>7.434103255811761</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.10589072543113</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.98277977655955</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.98169291909157</v>
+        <v>24.40609987710825</v>
       </c>
       <c r="C25">
-        <v>7.493979366563193</v>
+        <v>14.84833718043224</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.007484177145428</v>
+        <v>9.268965184374172</v>
       </c>
       <c r="F25">
-        <v>72.19789462077355</v>
+        <v>31.80622128887056</v>
       </c>
       <c r="G25">
-        <v>2.187078845890945</v>
+        <v>36.67553631144321</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.686831411907574</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.607307930831437</v>
       </c>
       <c r="J25">
-        <v>12.99612717598702</v>
+        <v>11.51347795229296</v>
       </c>
       <c r="K25">
-        <v>11.96499556962424</v>
+        <v>17.79037462703109</v>
       </c>
       <c r="L25">
-        <v>3.867940727397826</v>
+        <v>5.422893234998501</v>
       </c>
       <c r="M25">
-        <v>7.540876867106743</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.488872690423996</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.24659638730135</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.48419244024626</v>
+        <v>21.85316115875661</v>
       </c>
       <c r="C2">
-        <v>13.70821002098385</v>
+        <v>13.96041384049581</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.997837449674707</v>
+        <v>8.996395845963226</v>
       </c>
       <c r="F2">
-        <v>30.44628131934066</v>
+        <v>29.46870107759258</v>
       </c>
       <c r="G2">
-        <v>34.85977858737962</v>
+        <v>32.26796271572277</v>
       </c>
       <c r="H2">
-        <v>2.047472544923967</v>
+        <v>1.999823170417471</v>
       </c>
       <c r="I2">
-        <v>2.631109269805648</v>
+        <v>2.5620113757462</v>
       </c>
       <c r="J2">
-        <v>11.29676183159702</v>
+        <v>11.27151999742598</v>
       </c>
       <c r="K2">
-        <v>17.58840478408701</v>
+        <v>16.60967233816123</v>
       </c>
       <c r="L2">
-        <v>5.364359126614276</v>
+        <v>13.94094870618609</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.74560716754281</v>
       </c>
       <c r="N2">
-        <v>8.994734012630937</v>
+        <v>5.328406006330865</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.44305308767213</v>
+        <v>9.252645732595855</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.40082280796402</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.04779205320445</v>
+        <v>20.48108694722117</v>
       </c>
       <c r="C3">
-        <v>12.90789999397299</v>
+        <v>13.10391992338332</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.808545756618679</v>
+        <v>8.82546871689175</v>
       </c>
       <c r="F3">
-        <v>29.46164938407226</v>
+        <v>28.58539518721975</v>
       </c>
       <c r="G3">
-        <v>33.50343498257515</v>
+        <v>31.13408196281872</v>
       </c>
       <c r="H3">
-        <v>2.30454135110099</v>
+        <v>2.236345242412865</v>
       </c>
       <c r="I3">
-        <v>2.835071350411456</v>
+        <v>2.73928038306047</v>
       </c>
       <c r="J3">
-        <v>11.13660506503839</v>
+        <v>11.11546365464761</v>
       </c>
       <c r="K3">
-        <v>17.42131109850612</v>
+        <v>16.52269413393908</v>
       </c>
       <c r="L3">
-        <v>5.322343897022607</v>
+        <v>13.99299930936749</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.55844287004752</v>
       </c>
       <c r="N3">
-        <v>8.655575905199004</v>
+        <v>5.275146994076625</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.58171622756762</v>
+        <v>8.901757588649392</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.51108887143358</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.11357537515294</v>
+        <v>19.58721468527449</v>
       </c>
       <c r="C4">
-        <v>12.39349809238124</v>
+        <v>12.55242258221678</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.689566983331519</v>
+        <v>8.718234221166975</v>
       </c>
       <c r="F4">
-        <v>28.84844548195693</v>
+        <v>28.03498691377931</v>
       </c>
       <c r="G4">
-        <v>32.65617381082495</v>
+        <v>30.42902904447005</v>
       </c>
       <c r="H4">
-        <v>2.467929315252411</v>
+        <v>2.386818301740508</v>
       </c>
       <c r="I4">
-        <v>2.965378613769579</v>
+        <v>2.852977902010065</v>
       </c>
       <c r="J4">
-        <v>11.04083237194189</v>
+        <v>11.01907209302587</v>
       </c>
       <c r="K4">
-        <v>17.32243471623196</v>
+        <v>16.47166239595087</v>
       </c>
       <c r="L4">
-        <v>5.295262942005799</v>
+        <v>14.02266828969891</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.46382975871729</v>
       </c>
       <c r="N4">
-        <v>8.441587480112338</v>
+        <v>5.241195570804149</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.66862388421655</v>
+        <v>8.680736673098822</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.58118478997911</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.71318965032859</v>
+        <v>19.20360140716891</v>
       </c>
       <c r="C5">
-        <v>12.18262031535132</v>
+        <v>12.32587034689577</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.640387290819032</v>
+        <v>8.673994067107952</v>
       </c>
       <c r="F5">
-        <v>28.58765509962188</v>
+        <v>27.80015376708301</v>
       </c>
       <c r="G5">
-        <v>32.2875082472561</v>
+        <v>30.12008606938452</v>
       </c>
       <c r="H5">
-        <v>2.536322709965915</v>
+        <v>2.449842372432527</v>
       </c>
       <c r="I5">
-        <v>3.02274860783769</v>
+        <v>2.904000181650706</v>
       </c>
       <c r="J5">
-        <v>10.99870753917724</v>
+        <v>10.97605162316441</v>
       </c>
       <c r="K5">
-        <v>17.27541487595651</v>
+        <v>16.44425230804193</v>
       </c>
       <c r="L5">
-        <v>5.283892602458431</v>
+        <v>14.02801496339364</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.42578675916923</v>
       </c>
       <c r="N5">
-        <v>8.354878414835621</v>
+        <v>5.227134354659169</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.7046523514542</v>
+        <v>8.591183519276081</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.6107406332621</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.63784810130899</v>
+        <v>19.13123241127873</v>
       </c>
       <c r="C6">
-        <v>12.15276179691786</v>
+        <v>12.2934776338603</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.632174817274977</v>
+        <v>8.666648610522513</v>
       </c>
       <c r="F6">
-        <v>28.53317984808455</v>
+        <v>27.75033038385514</v>
       </c>
       <c r="G6">
-        <v>32.20139178825397</v>
+        <v>30.04456188308457</v>
       </c>
       <c r="H6">
-        <v>2.548244362641165</v>
+        <v>2.460834276361988</v>
       </c>
       <c r="I6">
-        <v>3.036184855832753</v>
+        <v>2.917014630925324</v>
       </c>
       <c r="J6">
-        <v>10.9871635096286</v>
+        <v>10.96447868851255</v>
       </c>
       <c r="K6">
-        <v>17.25831185167018</v>
+        <v>16.4309551232605</v>
       </c>
       <c r="L6">
-        <v>5.281974481410553</v>
+        <v>14.02134620131901</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.41401436734592</v>
       </c>
       <c r="N6">
-        <v>8.342663479366562</v>
+        <v>5.224892714816306</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.71086902006872</v>
+        <v>8.578456679641427</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.61617602923763</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.08669482631867</v>
+        <v>19.55118191695236</v>
       </c>
       <c r="C7">
-        <v>12.40540511950343</v>
+        <v>12.54763413048486</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.688897766558691</v>
+        <v>8.721508063750132</v>
       </c>
       <c r="F7">
-        <v>28.81504283946273</v>
+        <v>27.98790839983914</v>
       </c>
       <c r="G7">
-        <v>32.58457262052251</v>
+        <v>30.43688809105826</v>
       </c>
       <c r="H7">
-        <v>2.470134119208262</v>
+        <v>2.389556395811772</v>
       </c>
       <c r="I7">
-        <v>2.976342226446678</v>
+        <v>2.866297784038606</v>
       </c>
       <c r="J7">
-        <v>11.027788450299</v>
+        <v>10.95308953127603</v>
       </c>
       <c r="K7">
-        <v>17.2963409627813</v>
+        <v>16.436373343895</v>
       </c>
       <c r="L7">
-        <v>5.295102647826982</v>
+        <v>13.99326720911845</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.43973649922195</v>
       </c>
       <c r="N7">
-        <v>8.44652181998252</v>
+        <v>5.241563132224901</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.66975094926929</v>
+        <v>8.686758400493035</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.58376246072214</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.97341205573018</v>
+        <v>21.33473018863485</v>
       </c>
       <c r="C8">
-        <v>13.45524091292997</v>
+        <v>13.63711366704516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.933146056212848</v>
+        <v>8.950469552123549</v>
       </c>
       <c r="F8">
-        <v>30.07076335031652</v>
+        <v>29.08148460628719</v>
       </c>
       <c r="G8">
-        <v>34.31124046709641</v>
+        <v>32.04269412437021</v>
       </c>
       <c r="H8">
-        <v>2.1365974054971</v>
+        <v>2.083970674455889</v>
       </c>
       <c r="I8">
-        <v>2.713720489487466</v>
+        <v>2.640010384628938</v>
       </c>
       <c r="J8">
-        <v>11.22481141571649</v>
+        <v>11.02899687515521</v>
       </c>
       <c r="K8">
-        <v>17.49676312401481</v>
+        <v>16.51202882835084</v>
       </c>
       <c r="L8">
-        <v>5.350218230011928</v>
+        <v>13.90561093529323</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.62799262983692</v>
       </c>
       <c r="N8">
-        <v>8.8867500429948</v>
+        <v>5.311764584653406</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.49170552894975</v>
+        <v>9.144414863885192</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.44370596315418</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.29191146393526</v>
+        <v>24.49375365074562</v>
       </c>
       <c r="C9">
-        <v>15.30698786798507</v>
+        <v>15.60694961922755</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.390285630036248</v>
+        <v>9.366965068900743</v>
       </c>
       <c r="F9">
-        <v>32.50284886785575</v>
+        <v>31.25592973346638</v>
       </c>
       <c r="G9">
-        <v>37.6772754321635</v>
+        <v>34.93173452901276</v>
       </c>
       <c r="H9">
-        <v>1.596996740508206</v>
+        <v>1.599286402063361</v>
       </c>
       <c r="I9">
-        <v>2.726894280202179</v>
+        <v>2.744570777452811</v>
       </c>
       <c r="J9">
-        <v>11.65284073872025</v>
+        <v>11.38741603824849</v>
       </c>
       <c r="K9">
-        <v>17.96477469942845</v>
+        <v>16.76272394453748</v>
       </c>
       <c r="L9">
-        <v>5.448005165995823</v>
+        <v>13.78269467273962</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.21057831391611</v>
       </c>
       <c r="N9">
-        <v>9.690811392944786</v>
+        <v>5.437871188597962</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.15454477944626</v>
+        <v>9.978969196452931</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.18228358198247</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.4016524069262</v>
+        <v>26.46500816235514</v>
       </c>
       <c r="C10">
-        <v>16.57881754969655</v>
+        <v>16.87260490583204</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.643714375514875</v>
+        <v>9.610945658843567</v>
       </c>
       <c r="F10">
-        <v>33.99519730279645</v>
+        <v>32.50510926683425</v>
       </c>
       <c r="G10">
-        <v>39.7809002173781</v>
+        <v>37.12420610339471</v>
       </c>
       <c r="H10">
-        <v>2.003090906837697</v>
+        <v>1.968276036938601</v>
       </c>
       <c r="I10">
-        <v>3.053054235189602</v>
+        <v>3.025584051758897</v>
       </c>
       <c r="J10">
-        <v>11.9235097990696</v>
+        <v>11.31507326556995</v>
       </c>
       <c r="K10">
-        <v>18.22184366939117</v>
+        <v>16.81070772844259</v>
       </c>
       <c r="L10">
-        <v>5.518043361464634</v>
+        <v>13.57468406804028</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.59932541064258</v>
       </c>
       <c r="N10">
-        <v>10.15119762890717</v>
+        <v>5.535143879453694</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.92347579398818</v>
+        <v>10.46446568690846</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.02270381488246</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.73134591722238</v>
+        <v>26.72620178317142</v>
       </c>
       <c r="C11">
-        <v>17.29543217255398</v>
+        <v>17.41752369345627</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.23073297284299</v>
+        <v>9.195971220948906</v>
       </c>
       <c r="F11">
-        <v>32.74196014671322</v>
+        <v>31.13601133101847</v>
       </c>
       <c r="G11">
-        <v>38.54522315979481</v>
+        <v>36.80417163414114</v>
       </c>
       <c r="H11">
-        <v>2.90726986574766</v>
+        <v>2.8732582873013</v>
       </c>
       <c r="I11">
-        <v>3.145770684006762</v>
+        <v>3.103055166653655</v>
       </c>
       <c r="J11">
-        <v>11.60085751527017</v>
+        <v>10.44453807828292</v>
       </c>
       <c r="K11">
-        <v>17.49218477065476</v>
+        <v>16.0220290471617</v>
       </c>
       <c r="L11">
-        <v>5.613966005465463</v>
+        <v>12.91257190258755</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.11637868188605</v>
       </c>
       <c r="N11">
-        <v>9.514530766540716</v>
+        <v>5.684272151565224</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.91136400292839</v>
+        <v>9.821041314298085</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.09259551600615</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.59429707317984</v>
+        <v>26.58365360158366</v>
       </c>
       <c r="C12">
-        <v>17.62402890237264</v>
+        <v>17.64679250865236</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.934425425366953</v>
+        <v>8.874249347472931</v>
       </c>
       <c r="F12">
-        <v>31.38776413082887</v>
+        <v>29.78173552840559</v>
       </c>
       <c r="G12">
-        <v>37.12040988363386</v>
+        <v>35.90247407909545</v>
       </c>
       <c r="H12">
-        <v>4.169897720769647</v>
+        <v>4.145263575631651</v>
       </c>
       <c r="I12">
-        <v>3.155627747876952</v>
+        <v>3.109174383502213</v>
       </c>
       <c r="J12">
-        <v>11.28206216508664</v>
+        <v>9.927057621028643</v>
       </c>
       <c r="K12">
-        <v>16.85302917543604</v>
+        <v>15.41821997670066</v>
       </c>
       <c r="L12">
-        <v>5.714849083666135</v>
+        <v>12.46055130805153</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.67224731557239</v>
       </c>
       <c r="N12">
-        <v>8.878295442301033</v>
+        <v>5.821278931900522</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.96862642737358</v>
+        <v>9.1681137339469</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.19623570999842</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.05431253625352</v>
+        <v>26.1124354905613</v>
       </c>
       <c r="C13">
-        <v>17.70084736659787</v>
+        <v>17.70507254859945</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.714386512480042</v>
+        <v>8.618195559885594</v>
       </c>
       <c r="F13">
-        <v>29.80702125552065</v>
+        <v>28.32327731480084</v>
       </c>
       <c r="G13">
-        <v>35.33573851851795</v>
+        <v>34.21152903622963</v>
       </c>
       <c r="H13">
-        <v>5.489395768154045</v>
+        <v>5.473816061736316</v>
       </c>
       <c r="I13">
-        <v>3.105831035487848</v>
+        <v>3.067275993418919</v>
       </c>
       <c r="J13">
-        <v>10.92497803467705</v>
+        <v>9.717944643562729</v>
       </c>
       <c r="K13">
-        <v>16.20434563736916</v>
+        <v>14.90487882143567</v>
       </c>
       <c r="L13">
-        <v>5.822720569594227</v>
+        <v>12.12051555518753</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.22278305933764</v>
       </c>
       <c r="N13">
-        <v>8.20358487985353</v>
+        <v>5.947643343902209</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.07926341836985</v>
+        <v>8.465497777432525</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.3191006459326</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.4811253983968</v>
+        <v>25.62131892863407</v>
       </c>
       <c r="C14">
-        <v>17.64565821981221</v>
+        <v>17.67228773539888</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.613271192274571</v>
+        <v>8.496704777972955</v>
       </c>
       <c r="F14">
-        <v>28.57981345138948</v>
+        <v>27.23603250226701</v>
       </c>
       <c r="G14">
-        <v>33.88794001755723</v>
+        <v>32.64331524409384</v>
       </c>
       <c r="H14">
-        <v>6.445337063474617</v>
+        <v>6.452698038988572</v>
       </c>
       <c r="I14">
-        <v>3.045147544185679</v>
+        <v>3.017671192848338</v>
       </c>
       <c r="J14">
-        <v>10.65382706421069</v>
+        <v>9.692959982903433</v>
       </c>
       <c r="K14">
-        <v>15.74188471750443</v>
+        <v>14.57893538373112</v>
       </c>
       <c r="L14">
-        <v>5.904566574735751</v>
+        <v>11.92365514795379</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.902084007845078</v>
       </c>
       <c r="N14">
-        <v>7.71594419053964</v>
+        <v>6.032184601856245</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.18187351484829</v>
+        <v>7.953454435267806</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.4128645227249</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.24649219730334</v>
+        <v>25.4216147430202</v>
       </c>
       <c r="C15">
-        <v>17.58285588080549</v>
+        <v>17.63019479451769</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.589842833086488</v>
+        <v>8.471298796151007</v>
       </c>
       <c r="F15">
-        <v>28.22409436773742</v>
+        <v>26.93781094828823</v>
       </c>
       <c r="G15">
-        <v>33.43610226994858</v>
+        <v>32.08350440667996</v>
       </c>
       <c r="H15">
-        <v>6.685755819701448</v>
+        <v>6.692144178509435</v>
       </c>
       <c r="I15">
-        <v>3.018498676241082</v>
+        <v>2.99674041876602</v>
       </c>
       <c r="J15">
-        <v>10.57633244178137</v>
+        <v>9.736193312866476</v>
       </c>
       <c r="K15">
-        <v>15.62038086926336</v>
+        <v>14.50860584465462</v>
       </c>
       <c r="L15">
-        <v>5.92216642527274</v>
+        <v>11.88933579278862</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.816996848159466</v>
       </c>
       <c r="N15">
-        <v>7.589575200318997</v>
+        <v>6.046628697711685</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.21634657669331</v>
+        <v>7.81946614616698</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.43830865201113</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.42421954230075</v>
+        <v>24.7108604890145</v>
       </c>
       <c r="C16">
-        <v>17.06007716363201</v>
+        <v>17.23206798217432</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.51504575648317</v>
+        <v>8.415654162760301</v>
       </c>
       <c r="F16">
-        <v>27.8286122751524</v>
+        <v>26.73640663448383</v>
       </c>
       <c r="G16">
-        <v>32.76131454546415</v>
+        <v>30.76658141941089</v>
       </c>
       <c r="H16">
-        <v>6.48068992992555</v>
+        <v>6.48359152632768</v>
       </c>
       <c r="I16">
-        <v>2.891726042801853</v>
+        <v>2.893497420858033</v>
       </c>
       <c r="J16">
-        <v>10.51707293588642</v>
+        <v>10.18475372126107</v>
       </c>
       <c r="K16">
-        <v>15.62143865383556</v>
+        <v>14.65451133156933</v>
       </c>
       <c r="L16">
-        <v>5.867936066578292</v>
+        <v>12.06157096414185</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.805055361768968</v>
       </c>
       <c r="N16">
-        <v>7.507992793851409</v>
+        <v>5.962137464658263</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.27968266525861</v>
+        <v>7.725170967686906</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.44307806327342</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.10827019178477</v>
+        <v>24.42540491352014</v>
       </c>
       <c r="C17">
-        <v>16.68172823350411</v>
+        <v>16.91697776777177</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.500961619147985</v>
+        <v>8.416911713289373</v>
       </c>
       <c r="F17">
-        <v>28.19449741215316</v>
+        <v>27.15737325914917</v>
       </c>
       <c r="G17">
-        <v>33.04123727240055</v>
+        <v>30.71996365595778</v>
       </c>
       <c r="H17">
-        <v>5.741119003830955</v>
+        <v>5.742061305017595</v>
       </c>
       <c r="I17">
-        <v>2.826759008469946</v>
+        <v>2.839959814183071</v>
       </c>
       <c r="J17">
-        <v>10.61795426832919</v>
+        <v>10.48728364713792</v>
       </c>
       <c r="K17">
-        <v>15.86776178043345</v>
+        <v>14.92799497041652</v>
       </c>
       <c r="L17">
-        <v>5.780158864410591</v>
+        <v>12.29775454760028</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.953845815215688</v>
       </c>
       <c r="N17">
-        <v>7.708254202385604</v>
+        <v>5.854402772443509</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.2754151146104</v>
+        <v>7.92956661189081</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.40565987243945</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2056215051504</v>
+        <v>24.50733965173519</v>
       </c>
       <c r="C18">
-        <v>16.38044827759181</v>
+        <v>16.66059569907096</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.601485444975761</v>
+        <v>8.529244029266843</v>
       </c>
       <c r="F18">
-        <v>29.27571514849647</v>
+        <v>28.20757539577554</v>
       </c>
       <c r="G18">
-        <v>34.21679230011077</v>
+        <v>31.65681024274443</v>
       </c>
       <c r="H18">
-        <v>4.474386132336647</v>
+        <v>4.474848032916802</v>
       </c>
       <c r="I18">
-        <v>2.805890432731228</v>
+        <v>2.820924817728693</v>
       </c>
       <c r="J18">
-        <v>10.87502593768377</v>
+        <v>10.79977266447706</v>
       </c>
       <c r="K18">
-        <v>16.37262891157236</v>
+        <v>15.38341814200946</v>
       </c>
       <c r="L18">
-        <v>5.666967677724206</v>
+        <v>12.64946350123899</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.28324937183031</v>
       </c>
       <c r="N18">
-        <v>8.182685341556018</v>
+        <v>5.723010973483979</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.21846465167499</v>
+        <v>8.420115683799388</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.32518679301564</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59243771757053</v>
+        <v>24.84614318575677</v>
       </c>
       <c r="C19">
-        <v>16.19113527768642</v>
+        <v>16.50966590689456</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.87488505408945</v>
+        <v>8.813101916827264</v>
       </c>
       <c r="F19">
-        <v>30.79338801156796</v>
+        <v>29.64126431124892</v>
       </c>
       <c r="G19">
-        <v>35.89618336600238</v>
+        <v>33.12811173625553</v>
       </c>
       <c r="H19">
-        <v>2.951688044729187</v>
+        <v>2.95409562175609</v>
       </c>
       <c r="I19">
-        <v>2.83287875068471</v>
+        <v>2.844774658355882</v>
       </c>
       <c r="J19">
-        <v>11.21594103630834</v>
+        <v>11.11713175696639</v>
       </c>
       <c r="K19">
-        <v>17.01177559602725</v>
+        <v>15.92709070496202</v>
       </c>
       <c r="L19">
-        <v>5.567700500659337</v>
+        <v>13.05169886236895</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.71003117688595</v>
       </c>
       <c r="N19">
-        <v>8.863026794556944</v>
+        <v>5.604416030547372</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.14146484986611</v>
+        <v>9.123415635741383</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.23004493699497</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.80879132044792</v>
+        <v>25.93008061722727</v>
       </c>
       <c r="C20">
-        <v>16.28971144088727</v>
+        <v>16.63284344352842</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.574615971580746</v>
+        <v>9.531975374644027</v>
       </c>
       <c r="F20">
-        <v>33.51704867228778</v>
+        <v>32.13951277730311</v>
       </c>
       <c r="G20">
-        <v>39.04853131622475</v>
+        <v>36.13713733265288</v>
       </c>
       <c r="H20">
-        <v>1.892764366760011</v>
+        <v>1.869888771483982</v>
       </c>
       <c r="I20">
-        <v>2.97697972409802</v>
+        <v>2.967314049069762</v>
       </c>
       <c r="J20">
-        <v>11.81333742119684</v>
+        <v>11.47437402577602</v>
       </c>
       <c r="K20">
-        <v>18.0737455859047</v>
+        <v>16.76124676196566</v>
       </c>
       <c r="L20">
-        <v>5.500955044126845</v>
+        <v>13.60352571496245</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.46385984927838</v>
       </c>
       <c r="N20">
-        <v>10.04388483823342</v>
+        <v>5.510928548617066</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.98870420218205</v>
+        <v>10.34645708556692</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.06746392562161</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.490126699676</v>
+        <v>27.3619100217823</v>
       </c>
       <c r="C21">
-        <v>17.19483477776112</v>
+        <v>17.29892345386135</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.872892469584672</v>
+        <v>9.896735726760566</v>
       </c>
       <c r="F21">
-        <v>34.99666284889298</v>
+        <v>33.17578133191698</v>
       </c>
       <c r="G21">
-        <v>41.04872915243977</v>
+        <v>39.38995072015245</v>
       </c>
       <c r="H21">
-        <v>2.214013794221072</v>
+        <v>2.15149145155618</v>
       </c>
       <c r="I21">
-        <v>3.231279656667197</v>
+        <v>3.17463840194841</v>
       </c>
       <c r="J21">
-        <v>12.10979789538917</v>
+        <v>10.59712552094399</v>
       </c>
       <c r="K21">
-        <v>18.44046443895449</v>
+        <v>16.74556302571058</v>
       </c>
       <c r="L21">
-        <v>5.546126031809963</v>
+        <v>13.40655374179518</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.73391346005515</v>
       </c>
       <c r="N21">
-        <v>10.53593203238552</v>
+        <v>5.578634581791897</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.8012993771222</v>
+        <v>10.88221751004607</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.95825440152191</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.54219124512256</v>
+        <v>28.23815793899782</v>
       </c>
       <c r="C22">
-        <v>17.76160134275277</v>
+        <v>17.69862007964685</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.02988867346252</v>
+        <v>10.10441389863876</v>
       </c>
       <c r="F22">
-        <v>35.86815949397025</v>
+        <v>33.75215933661392</v>
       </c>
       <c r="G22">
-        <v>42.27669970501553</v>
+        <v>41.51625546965004</v>
       </c>
       <c r="H22">
-        <v>2.415799545312323</v>
+        <v>2.327916275673847</v>
       </c>
       <c r="I22">
-        <v>3.388778923756473</v>
+        <v>3.300689974150758</v>
       </c>
       <c r="J22">
-        <v>12.29454450068824</v>
+        <v>9.982641150762529</v>
       </c>
       <c r="K22">
-        <v>18.66615542285546</v>
+        <v>16.71038201358155</v>
       </c>
       <c r="L22">
-        <v>5.576420518055622</v>
+        <v>13.26000909404922</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.89740460229389</v>
       </c>
       <c r="N22">
-        <v>10.79315311347123</v>
+        <v>5.626200229263718</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.68181767878845</v>
+        <v>11.16750571213502</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.89635236443596</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.00368656737797</v>
+        <v>27.81137430192114</v>
       </c>
       <c r="C23">
-        <v>17.44793372817239</v>
+        <v>17.5059048931515</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.946276412496518</v>
+        <v>9.983093724711875</v>
       </c>
       <c r="F23">
-        <v>35.43356703303957</v>
+        <v>33.50666678681888</v>
       </c>
       <c r="G23">
-        <v>41.68626449674061</v>
+        <v>40.27705178093453</v>
       </c>
       <c r="H23">
-        <v>2.309669812057767</v>
+        <v>2.236387621368336</v>
       </c>
       <c r="I23">
-        <v>3.301744618445477</v>
+        <v>3.230176189280693</v>
       </c>
       <c r="J23">
-        <v>12.20908266109882</v>
+        <v>10.43766669878747</v>
       </c>
       <c r="K23">
-        <v>18.5732312253757</v>
+        <v>16.78192565307917</v>
       </c>
       <c r="L23">
-        <v>5.560071958822869</v>
+        <v>13.37447771525993</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.85320828737907</v>
       </c>
       <c r="N23">
-        <v>10.65064513248212</v>
+        <v>5.598794858395507</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.74342147119826</v>
+        <v>11.00734024146852</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.92122586454403</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.86470694389715</v>
+        <v>25.98200182079572</v>
       </c>
       <c r="C24">
-        <v>16.23990716962191</v>
+        <v>16.58798976576214</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.625191159235529</v>
+        <v>9.583408100290249</v>
       </c>
       <c r="F24">
-        <v>33.71336512962216</v>
+        <v>32.32850547084875</v>
       </c>
       <c r="G24">
-        <v>39.3110956706392</v>
+        <v>36.36804096756081</v>
       </c>
       <c r="H24">
-        <v>1.898255755098743</v>
+        <v>1.874970949582413</v>
       </c>
       <c r="I24">
-        <v>2.972252893598523</v>
+        <v>2.960011706176456</v>
       </c>
       <c r="J24">
-        <v>11.86892420689126</v>
+        <v>11.53322790500997</v>
       </c>
       <c r="K24">
-        <v>18.18617966517954</v>
+        <v>16.86276681218559</v>
       </c>
       <c r="L24">
-        <v>5.496390630751219</v>
+        <v>13.67973757014204</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.54151732273282</v>
       </c>
       <c r="N24">
-        <v>10.10589072543113</v>
+        <v>5.502355067353474</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.98277977655955</v>
+        <v>10.41054918982745</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.05605727043926</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.40609987710825</v>
+        <v>23.6628430343826</v>
       </c>
       <c r="C25">
-        <v>14.84833718043224</v>
+        <v>15.13927265566474</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.268965184374172</v>
+        <v>9.251295218613238</v>
       </c>
       <c r="F25">
-        <v>31.80622128887056</v>
+        <v>30.6489491600226</v>
       </c>
       <c r="G25">
-        <v>36.67553631144321</v>
+        <v>33.95669378402862</v>
       </c>
       <c r="H25">
-        <v>1.686831411907574</v>
+        <v>1.670044921361431</v>
       </c>
       <c r="I25">
-        <v>2.607307930831437</v>
+        <v>2.644305158263732</v>
       </c>
       <c r="J25">
-        <v>11.51347795229296</v>
+        <v>11.3432200380318</v>
       </c>
       <c r="K25">
-        <v>17.79037462703109</v>
+        <v>16.66640967761629</v>
       </c>
       <c r="L25">
-        <v>5.422893234998501</v>
+        <v>13.79828990144928</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.01694940776071</v>
       </c>
       <c r="N25">
-        <v>9.488872690423996</v>
+        <v>5.405365967983565</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.24659638730135</v>
+        <v>9.767031503075982</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.25341895503425</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
